--- a/data/overall_data/adventure_result.xlsx
+++ b/data/overall_data/adventure_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JHU\Research\Honey's Lab\Agency_choice_memory\reproduce\data\overall_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2494BC-5891-4E42-A6F6-F40855BFC9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F705F-3CB1-4D08-BEF8-8DD6EEC374AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="18110" windowHeight="13740" activeTab="1" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
+    <workbookView xWindow="5190" yWindow="1220" windowWidth="18110" windowHeight="13740" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_conds" sheetId="15" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="245">
   <si>
     <t>sem-ef</t>
   </si>
@@ -57,21 +57,6 @@
     <t>wn_rcl_r</t>
   </si>
   <si>
-    <t>trans_score</t>
-  </si>
-  <si>
-    <t>ius_score</t>
-  </si>
-  <si>
-    <t>cei2_score</t>
-  </si>
-  <si>
-    <t>cei2_stretch</t>
-  </si>
-  <si>
-    <t>cei2_embrace</t>
-  </si>
-  <si>
     <t>prcnt_want</t>
   </si>
   <si>
@@ -84,30 +69,15 @@
     <t>inds</t>
   </si>
   <si>
-    <t>choice_rcl</t>
-  </si>
-  <si>
-    <t>frcl_want_cho</t>
-  </si>
-  <si>
-    <t>frcl_unwant_cho</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
-    <t>yrcl_want_cho</t>
-  </si>
-  <si>
     <t>sem-caus</t>
   </si>
   <si>
     <t>nghb-ef</t>
   </si>
   <si>
-    <t>yrcl_unwant_cho</t>
-  </si>
-  <si>
     <t>cond</t>
   </si>
   <si>
@@ -475,420 +445,6 @@
   </si>
   <si>
     <t>to4_sub3049</t>
-  </si>
-  <si>
-    <t>trans_scores</t>
-  </si>
-  <si>
-    <t>ius_scores</t>
-  </si>
-  <si>
-    <t>cei2_scores</t>
-  </si>
-  <si>
-    <t>6,1,7,7,4,6,4,1,2,1,1,1</t>
-  </si>
-  <si>
-    <t>4,4,2,3,2,1,3,5,3,1,4,2</t>
-  </si>
-  <si>
-    <t>4,2,4,3,4,3,4,2,4,3</t>
-  </si>
-  <si>
-    <t>6,2,5,6,7,3,1,5,1,2,1,1</t>
-  </si>
-  <si>
-    <t>3,4,3,5,4,1,4,3,4,2,5,3</t>
-  </si>
-  <si>
-    <t>4,2,5,4,4,3,5,2,5,4</t>
-  </si>
-  <si>
-    <t>7,1,7,7,5,6,1,7,2,1,2,4</t>
-  </si>
-  <si>
-    <t>2,3,1,5,5,2,2,4,2,1,2,1</t>
-  </si>
-  <si>
-    <t>4,2,4,4,4,1,4,3,4,3</t>
-  </si>
-  <si>
-    <t>5,2,4,5,6,6,2,6,3,3,1,1</t>
-  </si>
-  <si>
-    <t>2,3,2,3,3,1,1,3,2,1,3,1</t>
-  </si>
-  <si>
-    <t>4,4,5,5,4,3,4,5,4,4</t>
-  </si>
-  <si>
-    <t>6,1,5,6,4,5,2,1,1,1,1,3</t>
-  </si>
-  <si>
-    <t>2,4,3,4,2,3,3,1,2,3,4,1</t>
-  </si>
-  <si>
-    <t>5,3,5,4,5,2,4,4,5,5</t>
-  </si>
-  <si>
-    <t>5,2,6,5,4,6,2,1,3,2,1,4</t>
-  </si>
-  <si>
-    <t>4,5,2,4,1,3,3,2,1,4,4,3</t>
-  </si>
-  <si>
-    <t>4,1,3,2,2,3,3,3,4,1</t>
-  </si>
-  <si>
-    <t>7,1,7,7,2,6,6,7,1,3,1,6</t>
-  </si>
-  <si>
-    <t>1,1,1,5,2,1,1,4,2,1,3,4</t>
-  </si>
-  <si>
-    <t>5,2,5,4,5,1,5,3,5,4</t>
-  </si>
-  <si>
-    <t>6,2,5,7,5,6,3,2,5,1,1,2</t>
-  </si>
-  <si>
-    <t>3,2,3,3,1,1,2,3,2,1,3,1</t>
-  </si>
-  <si>
-    <t>4,3,4,4,4,3,3,4,4,3</t>
-  </si>
-  <si>
-    <t>6,1,7,6,2,3,1,1,3,1,1,1</t>
-  </si>
-  <si>
-    <t>4,5,4,3,4,4,4,3,5,4,3,3</t>
-  </si>
-  <si>
-    <t>3,1,2,2,3,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>6,2,5,4,6,6,1,2,3,1,1,1</t>
-  </si>
-  <si>
-    <t>2,4,1,3,3,1,2,3,1,1,3,2</t>
-  </si>
-  <si>
-    <t>4,5,5,5,3,5,4,5,3,3</t>
-  </si>
-  <si>
-    <t>7,2,7,7,6,7,3,4,3,1,1,5</t>
-  </si>
-  <si>
-    <t>2,3,2,3,1,2,1,3,2,1,2,1</t>
-  </si>
-  <si>
-    <t>4,2,3,3,2,2,3,1,3,2</t>
-  </si>
-  <si>
-    <t>7,2,7,7,2,7,5,6,2,6,2,6</t>
-  </si>
-  <si>
-    <t>2,2,2,3,2,2,2,4,2,2,2,2</t>
-  </si>
-  <si>
-    <t>4,4,4,4,4,5,4,3,4,4</t>
-  </si>
-  <si>
-    <t>5,1,4,5,2,3,1,2,1,1,1,3</t>
-  </si>
-  <si>
-    <t>2,1,2,3,4,3,3,3,2,2,4,2</t>
-  </si>
-  <si>
-    <t>5,3,3,3,4,3,2,2,3,2</t>
-  </si>
-  <si>
-    <t>6,5,3,5,6,7,4,3,3,1,1,1</t>
-  </si>
-  <si>
-    <t>4,5,4,2,3,4,4,5,3,5,4,4</t>
-  </si>
-  <si>
-    <t>5,3,2,4,5,4,4,2,5,3</t>
-  </si>
-  <si>
-    <t>7,1,7,7,5,4,1,6,2,1,1,4</t>
-  </si>
-  <si>
-    <t>3,5,5,4,3,2,2,5,1,1,4,2</t>
-  </si>
-  <si>
-    <t>5,3,4,3,4,2,4,2,5,2</t>
-  </si>
-  <si>
-    <t>7,2,7,7,4,6,4,2,2,1,1,4</t>
-  </si>
-  <si>
-    <t>4,4,2,3,3,4,4,4,2,3,3,2</t>
-  </si>
-  <si>
-    <t>3,1,1,2,2,1,1,3,2,1</t>
-  </si>
-  <si>
-    <t>6,1,6,6,4,6,1,7,1,2,1,6</t>
-  </si>
-  <si>
-    <t>2,4,1,3,2,1,1,3,1,1,2,1</t>
-  </si>
-  <si>
-    <t>4,1,2,2,3,1,2,3,3,4</t>
-  </si>
-  <si>
-    <t>6,5,6,6,5,6,3,6,5,3,3,4</t>
-  </si>
-  <si>
-    <t>3,5,3,5,5,3,5,4,4,4,5,4</t>
-  </si>
-  <si>
-    <t>4,3,4,3,5,2,3,1,4,2</t>
-  </si>
-  <si>
-    <t>5,2,5,5,4,3,4,2,3,1,1,1</t>
-  </si>
-  <si>
-    <t>2,4,3,5,2,2,4,5,3,4,3,3</t>
-  </si>
-  <si>
-    <t>4,2,3,2,3,2,5,3,4,3</t>
-  </si>
-  <si>
-    <t>4,1,3,6,7,6,1,6,1,1,1,2</t>
-  </si>
-  <si>
-    <t>2,3,1,2,1,1,2,2,1,2,2,1</t>
-  </si>
-  <si>
-    <t>4,4,4,5,4,4,4,3,4,4</t>
-  </si>
-  <si>
-    <t>7,1,7,7,3,6,2,5,3,2,2,4</t>
-  </si>
-  <si>
-    <t>2,5,2,5,3,1,2,5,2,1,4,3</t>
-  </si>
-  <si>
-    <t>5,3,4,4,4,2,4,2,5,3</t>
-  </si>
-  <si>
-    <t>5,1,5,6,3,3,1,2,1,2,1,3</t>
-  </si>
-  <si>
-    <t>3,4,2,2,4,5,4,3,5,3,3,2</t>
-  </si>
-  <si>
-    <t>4,3,3,3,4,2,2,3,2,1</t>
-  </si>
-  <si>
-    <t>5,1,6,7,1,7,3,5,4,3,2,6</t>
-  </si>
-  <si>
-    <t>3,4,3,3,2,4,2,3,3,2,2,3</t>
-  </si>
-  <si>
-    <t>5,3,2,4,5,1,4,2,4,5</t>
-  </si>
-  <si>
-    <t>7,2,6,7,3,7,3,2,2,1,1,7</t>
-  </si>
-  <si>
-    <t>4,5,3,4,2,2,2,2,1,3,5,2</t>
-  </si>
-  <si>
-    <t>5,3,4,5,5,3,3,2,4,4</t>
-  </si>
-  <si>
-    <t>7,1,7,7,5,5,1,3,3,1,1,2</t>
-  </si>
-  <si>
-    <t>4,3,3,4,3,3,4,4,3,3,4,3</t>
-  </si>
-  <si>
-    <t>4,2,4,4,4,4,3,3,4,3</t>
-  </si>
-  <si>
-    <t>5,3,3,5,6,7,3,7,3,1,1,4</t>
-  </si>
-  <si>
-    <t>3,3,1,2,2,1,1,1,1,1,2,1</t>
-  </si>
-  <si>
-    <t>4,3,3,5,4,4,2,3,4,5</t>
-  </si>
-  <si>
-    <t>4,2,2,3,6,2,1,1,5,3,2,3</t>
-  </si>
-  <si>
-    <t>4,5,4,3,3,3,4,3,4,3,4,3</t>
-  </si>
-  <si>
-    <t>3,1,2,3,2,2,2,1,3,1</t>
-  </si>
-  <si>
-    <t>7,2,7,6,3,7,4,4,3,5,2,5</t>
-  </si>
-  <si>
-    <t>4,4,4,3,3,4,3,3,5,3,3,2</t>
-  </si>
-  <si>
-    <t>4,3,3,3,4,1,4,3,4,3</t>
-  </si>
-  <si>
-    <t>6,6,6,7,5,7,3,4,5,1,2,4</t>
-  </si>
-  <si>
-    <t>3,3,4,5,2,2,2,4,2,2,5,3</t>
-  </si>
-  <si>
-    <t>5,1,4,3,5,1,5,2,5,5</t>
-  </si>
-  <si>
-    <t>6,6,7,6,4,6,1,3,3,1,1,3</t>
-  </si>
-  <si>
-    <t>2,2,1,4,2,1,1,3,2,2,3,1</t>
-  </si>
-  <si>
-    <t>4,3,4,4,5,5,4,3,3,4</t>
-  </si>
-  <si>
-    <t>5,2,6,6,5,6,3,6,3,1,1,1</t>
-  </si>
-  <si>
-    <t>2,3,3,3,4,3,3,2,2,3,3,3</t>
-  </si>
-  <si>
-    <t>4,2,2,3,3,2,3,3,4,3</t>
-  </si>
-  <si>
-    <t>5,2,5,6,4,7,3,5,3,1,1,3</t>
-  </si>
-  <si>
-    <t>3,4,4,4,3,4,4,4,3,3,4,3</t>
-  </si>
-  <si>
-    <t>4,1,3,1,3,1,2,2,2,2</t>
-  </si>
-  <si>
-    <t>7,2,6,6,4,6,3,6,3,1,1,1</t>
-  </si>
-  <si>
-    <t>2,3,2,3,2,2,2,3,2,1,2,1</t>
-  </si>
-  <si>
-    <t>4,3,4,4,4,2,3,4,5,3</t>
-  </si>
-  <si>
-    <t>7,1,6,7,3,6,3,5,1,3,2,5</t>
-  </si>
-  <si>
-    <t>2,5,1,5,3,2,3,5,4,3,5,4</t>
-  </si>
-  <si>
-    <t>5,2,3,5,4,3,2,1,5,3</t>
-  </si>
-  <si>
-    <t>5,3,4,5,4,6,2,3,2,2,2,2</t>
-  </si>
-  <si>
-    <t>4,4,4,5,5,3,4,5,1,4,4,4</t>
-  </si>
-  <si>
-    <t>5,3,4,5,4,4,4,3,5,5</t>
-  </si>
-  <si>
-    <t>6,1,6,7,5,3,2,6,2,3,1,5</t>
-  </si>
-  <si>
-    <t>1,5,1,5,2,1,1,3,1,2,4,2</t>
-  </si>
-  <si>
-    <t>4,2,4,4,5,3,5,3,5,5</t>
-  </si>
-  <si>
-    <t>5,2,4,6,3,6,2,6,3,1,1,3</t>
-  </si>
-  <si>
-    <t>3,3,2,3,2,2,1,1,2,2,3,1</t>
-  </si>
-  <si>
-    <t>3,2,3,4,5,3,4,3,4,4</t>
-  </si>
-  <si>
-    <t>7,1,6,6,3,4,3,3,2,2,2,4</t>
-  </si>
-  <si>
-    <t>1,4,1,2,2,1,1,1,3,1,2,1</t>
-  </si>
-  <si>
-    <t>5,4,5,4,5,4,5,4,5,5</t>
-  </si>
-  <si>
-    <t>5,4,6,6,4,4,1,3,2,2,1,4</t>
-  </si>
-  <si>
-    <t>2,5,1,3,3,1,1,1,2,1,2,1</t>
-  </si>
-  <si>
-    <t>4,2,4,5,5,3,5,4,3,3</t>
-  </si>
-  <si>
-    <t>6,1,7,7,5,7,4,5,6,1,2,5</t>
-  </si>
-  <si>
-    <t>2,3,4,2,3,1,2,5,2,2,4,3</t>
-  </si>
-  <si>
-    <t>4,4,4,5,4,3,5,4,5,4</t>
-  </si>
-  <si>
-    <t>5,2,5,6,6,4,3,3,4,1,1,1</t>
-  </si>
-  <si>
-    <t>3,4,4,3,2,2,2,4,3,5,3,3</t>
-  </si>
-  <si>
-    <t>4,1,1,2,2,2,2,3,3,1</t>
-  </si>
-  <si>
-    <t>5,1,6,6,4,6,1,4,2,1,1,2</t>
-  </si>
-  <si>
-    <t>4,4,3,3,3,2,3,4,3,4,3,2</t>
-  </si>
-  <si>
-    <t>4,2,1,3,2,2,3,2,3,2</t>
-  </si>
-  <si>
-    <t>7,1,7,7,1,7,2,7,1,1,1,6</t>
-  </si>
-  <si>
-    <t>2,3,1,3,2,1,1,4,2,1,4,4</t>
-  </si>
-  <si>
-    <t>5,1,5,3,3,1,2,2,5,2</t>
-  </si>
-  <si>
-    <t>6,2,5,7,6,5,1,3,2,1,1,3</t>
-  </si>
-  <si>
-    <t>2,3,1,4,2,1,2,3,1,2,3,1</t>
-  </si>
-  <si>
-    <t>3,4,4,3,4,4,3,2,2,3</t>
-  </si>
-  <si>
-    <t>6,2,5,6,5,6,3,6,5,2,2,5</t>
-  </si>
-  <si>
-    <t>4,4,2,3,3,2,2,5,2,2,4,4</t>
-  </si>
-  <si>
-    <t>4,4,5,5,5,3,5,4,4,3</t>
   </si>
   <si>
     <t>0,0,1,0,1,1,0,1</t>
@@ -1579,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A7EB6-860A-1144-8B39-C1E000CAA824}">
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:A117"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1594,16 +1150,16 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>392</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1612,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
@@ -1621,22 +1177,22 @@
         <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B33" si="0">RIGHT(A2,4)</f>
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0.45833333333333331</v>
@@ -1668,14 +1224,14 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0.72</v>
@@ -1707,14 +1263,14 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.84</v>
@@ -1746,14 +1302,14 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>0.50943396226415094</v>
@@ -1785,14 +1341,14 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>0.42307692307692307</v>
@@ -1824,14 +1380,14 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>0.53333333333333333</v>
@@ -1863,14 +1419,14 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>0.81481481481481477</v>
@@ -1902,14 +1458,14 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0.54545454545454541</v>
@@ -1941,14 +1497,14 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>0.39215686274509798</v>
@@ -1980,14 +1536,14 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>0.4</v>
@@ -2019,14 +1575,14 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>0.56521739130434778</v>
@@ -2058,14 +1614,14 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>0.47619047619047622</v>
@@ -2097,14 +1653,14 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>0.59523809523809523</v>
@@ -2136,14 +1692,14 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0.57692307692307687</v>
@@ -2175,14 +1731,14 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>0.6875</v>
@@ -2214,14 +1770,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>1019</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>0.63043478260869568</v>
@@ -2253,14 +1809,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -2292,14 +1848,14 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>0.30508474576271188</v>
@@ -2331,14 +1887,14 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>0.66666666666666663</v>
@@ -2370,14 +1926,14 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>0.68</v>
@@ -2409,14 +1965,14 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>0.53061224489795922</v>
@@ -2448,14 +2004,14 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>0.29411764705882348</v>
@@ -2487,14 +2043,14 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>0.48571428571428571</v>
@@ -2526,14 +2082,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>0.6</v>
@@ -2565,14 +2121,14 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>0.54545454545454541</v>
@@ -2604,14 +2160,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>0.59090909090909094</v>
@@ -2643,14 +2199,14 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>0.62962962962962965</v>
@@ -2682,14 +2238,14 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>0.38095238095238088</v>
@@ -2721,14 +2277,14 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>0.23529411764705879</v>
@@ -2760,14 +2316,14 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>0.20754716981132079</v>
@@ -2799,14 +2355,14 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>0.55000000000000004</v>
@@ -2838,14 +2394,14 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D33">
         <v>0.33333333333333331</v>
@@ -2877,14 +2433,14 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B65" si="1">RIGHT(A34,4)</f>
         <v>2012</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>0.66666666666666663</v>
@@ -2916,14 +2472,14 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>0.5</v>
@@ -2955,14 +2511,14 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>0.5</v>
@@ -2994,14 +2550,14 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>0.50980392156862742</v>
@@ -3033,14 +2589,14 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>0.47457627118644069</v>
@@ -3072,14 +2628,14 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>0.46938775510204078</v>
@@ -3111,14 +2667,14 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>0.3125</v>
@@ -3150,14 +2706,14 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>0.69230769230769229</v>
@@ -3189,14 +2745,14 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>0.34615384615384609</v>
@@ -3228,14 +2784,14 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="C43" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>0.6</v>
@@ -3267,14 +2823,14 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
       <c r="C44" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>0.40677966101694918</v>
@@ -3306,14 +2862,14 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>0.45652173913043481</v>
@@ -3345,14 +2901,14 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
       <c r="C46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D46">
         <v>0.38775510204081631</v>
@@ -3384,14 +2940,14 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D47">
         <v>0.52173913043478259</v>
@@ -3423,14 +2979,14 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
       <c r="C48" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>0.56000000000000005</v>
@@ -3462,14 +3018,14 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D49">
         <v>0.40740740740740738</v>
@@ -3501,14 +3057,14 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>0.1764705882352941</v>
@@ -3540,14 +3096,14 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
       <c r="C51" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>0.4</v>
@@ -3579,14 +3135,14 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>0.58333333333333337</v>
@@ -3618,14 +3174,14 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
         <v>2039</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>0.62962962962962965</v>
@@ -3657,14 +3213,14 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="C54" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>0.33333333333333331</v>
@@ -3696,14 +3252,14 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>0.61538461538461542</v>
@@ -3735,14 +3291,14 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>0.78431372549019607</v>
@@ -3774,14 +3330,14 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
         <v>2043</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D57">
         <v>0.25925925925925919</v>
@@ -3813,14 +3369,14 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D58">
         <v>0.40476190476190482</v>
@@ -3852,14 +3408,14 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D59">
         <v>0.43478260869565222</v>
@@ -3891,14 +3447,14 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D60">
         <v>0.79166666666666663</v>
@@ -3930,14 +3486,14 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>0.76</v>
@@ -3969,14 +3525,14 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D62">
         <v>0.5</v>
@@ -4008,14 +3564,14 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
         <v>2051</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>0.60869565217391308</v>
@@ -4047,14 +3603,14 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
         <v>2052</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>0.44</v>
@@ -4086,14 +3642,14 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
         <v>2053</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D65">
         <v>0.65</v>
@@ -4125,14 +3681,14 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B97" si="2">RIGHT(A66,4)</f>
         <v>2056</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D66">
         <v>0.8</v>
@@ -4164,14 +3720,14 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>2057</v>
       </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D67">
         <v>0.56666666666666665</v>
@@ -4203,14 +3759,14 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>2058</v>
       </c>
       <c r="C68" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D68">
         <v>0.54285714285714282</v>
@@ -4242,14 +3798,14 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>0.64</v>
@@ -4281,14 +3837,14 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>3002</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D70">
         <v>0.76</v>
@@ -4320,14 +3876,14 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>3003</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D71">
         <v>0.29411764705882348</v>
@@ -4359,14 +3915,14 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
         <v>3004</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D72">
         <v>0.25490196078431371</v>
@@ -4398,14 +3954,14 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
         <v>3005</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D73">
         <v>0.88461538461538458</v>
@@ -4437,14 +3993,14 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
         <v>3006</v>
       </c>
       <c r="C74" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>0.48979591836734693</v>
@@ -4476,14 +4032,14 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
         <v>3007</v>
       </c>
       <c r="C75" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D75">
         <v>0.2857142857142857</v>
@@ -4515,14 +4071,14 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
       <c r="C76" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D76">
         <v>0.5</v>
@@ -4554,14 +4110,14 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
         <v>3009</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D77">
         <v>0.83673469387755106</v>
@@ -4593,14 +4149,14 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
         <v>3010</v>
       </c>
       <c r="C78" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D78">
         <v>0.2407407407407407</v>
@@ -4632,14 +4188,14 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
         <v>3011</v>
       </c>
       <c r="C79" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D79">
         <v>0.56603773584905659</v>
@@ -4671,14 +4227,14 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
         <v>3012</v>
       </c>
       <c r="C80" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D80">
         <v>0.52500000000000002</v>
@@ -4710,14 +4266,14 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
         <v>3013</v>
       </c>
       <c r="C81" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D81">
         <v>0.65384615384615385</v>
@@ -4749,14 +4305,14 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
         <v>3014</v>
       </c>
       <c r="C82" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D82">
         <v>0.67346938775510201</v>
@@ -4788,14 +4344,14 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D83">
         <v>0.41509433962264147</v>
@@ -4827,14 +4383,14 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
         <v>3016</v>
       </c>
       <c r="C84" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D84">
         <v>0.45652173913043481</v>
@@ -4866,14 +4422,14 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
         <v>3017</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>0.32203389830508472</v>
@@ -4905,14 +4461,14 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
         <v>3018</v>
       </c>
       <c r="C86" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>0.52173913043478259</v>
@@ -4944,14 +4500,14 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
         <v>3019</v>
       </c>
       <c r="C87" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>0.25</v>
@@ -4983,14 +4539,14 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
         <v>3020</v>
       </c>
       <c r="C88" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>0.5714285714285714</v>
@@ -5022,14 +4578,14 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
         <v>3021</v>
       </c>
       <c r="C89" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>0.42307692307692307</v>
@@ -5061,14 +4617,14 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
         <v>3022</v>
       </c>
       <c r="C90" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D90">
         <v>0.26190476190476192</v>
@@ -5100,14 +4656,14 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
         <v>3023</v>
       </c>
       <c r="C91" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>0.3559322033898305</v>
@@ -5139,14 +4695,14 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>3024</v>
       </c>
       <c r="C92" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>0.55555555555555558</v>
@@ -5178,14 +4734,14 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <v>0.59259259259259256</v>
@@ -5217,14 +4773,14 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>3026</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <v>0.26190476190476192</v>
@@ -5256,14 +4812,14 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D95">
         <v>0.27083333333333331</v>
@@ -5295,14 +4851,14 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>3028</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D96">
         <v>0.48</v>
@@ -5334,14 +4890,14 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D97">
         <v>0.63636363636363635</v>
@@ -5373,14 +4929,14 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" ref="B98:B117" si="3">RIGHT(A98,4)</f>
         <v>3030</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D98">
         <v>0.32608695652173908</v>
@@ -5412,14 +4968,14 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="3"/>
         <v>3031</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D99">
         <v>0.2857142857142857</v>
@@ -5451,14 +5007,14 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>3032</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D100">
         <v>0.35294117647058831</v>
@@ -5490,14 +5046,14 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="3"/>
         <v>3033</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D101">
         <v>0.6</v>
@@ -5529,14 +5085,14 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="3"/>
         <v>3034</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D102">
         <v>0.19607843137254899</v>
@@ -5568,14 +5124,14 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="3"/>
         <v>3035</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D103">
         <v>0.48148148148148151</v>
@@ -5607,14 +5163,14 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="3"/>
         <v>3036</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D104">
         <v>0.52500000000000002</v>
@@ -5646,14 +5202,14 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="3"/>
         <v>3037</v>
       </c>
       <c r="C105" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D105">
         <v>0.59090909090909094</v>
@@ -5685,14 +5241,14 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="3"/>
         <v>3038</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>0.51428571428571423</v>
@@ -5724,14 +5280,14 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="3"/>
         <v>3039</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D107">
         <v>0.25</v>
@@ -5763,14 +5319,14 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="3"/>
         <v>3040</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D108">
         <v>0.47619047619047622</v>
@@ -5802,14 +5358,14 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="3"/>
         <v>3041</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D109">
         <v>0.76666666666666672</v>
@@ -5841,14 +5397,14 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="3"/>
         <v>3042</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D110">
         <v>0.41666666666666669</v>
@@ -5880,14 +5436,14 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="3"/>
         <v>3043</v>
       </c>
       <c r="C111" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D111">
         <v>0.625</v>
@@ -5919,14 +5475,14 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="3"/>
         <v>3044</v>
       </c>
       <c r="C112" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D112">
         <v>0.64</v>
@@ -5958,14 +5514,14 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="3"/>
         <v>3045</v>
       </c>
       <c r="C113" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D113">
         <v>0.46666666666666667</v>
@@ -5997,14 +5553,14 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="3"/>
         <v>3046</v>
       </c>
       <c r="C114" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D114">
         <v>0.25714285714285712</v>
@@ -6036,14 +5592,14 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="3"/>
         <v>3047</v>
       </c>
       <c r="C115" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D115">
         <v>0.36</v>
@@ -6075,14 +5631,14 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="3"/>
         <v>3048</v>
       </c>
       <c r="C116" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D116">
         <v>0.58695652173913049</v>
@@ -6114,14 +5670,14 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="3"/>
         <v>3049</v>
       </c>
       <c r="C117" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D117">
         <v>0.52</v>
@@ -6162,10 +5718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06202F0C-D28B-CE48-9801-8E91D2A80670}">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K1" activeCellId="14" sqref="M1:M1048576 N1:N1048576 O1 P1:P1048576 O1:O1048576 Q1:Q1048576 R1 S1:S1048576 R1:R1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 L1:L1048576 K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -6174,7 +5730,7 @@
     <col min="29" max="29" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -6182,7 +5738,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6191,63 +5747,28 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" t="s">
-        <v>148</v>
-      </c>
-      <c r="U1" t="s">
-        <v>8</v>
-      </c>
-      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>0.63200000000000001</v>
@@ -6268,57 +5789,18 @@
         <v>0.63600000000000001</v>
       </c>
       <c r="H2" t="s">
-        <v>386</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>387</v>
+        <v>239</v>
       </c>
       <c r="J2" t="s">
-        <v>289</v>
-      </c>
-      <c r="K2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L2">
-        <v>0.8</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.6</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q2">
-        <v>42</v>
-      </c>
-      <c r="R2" t="s">
-        <v>276</v>
-      </c>
-      <c r="S2">
-        <v>28</v>
-      </c>
-      <c r="T2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U2">
-        <v>29</v>
-      </c>
-      <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B3">
         <v>-0.70699999999999996</v>
@@ -6339,57 +5821,18 @@
         <v>-0.17599999999999999</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>139</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
-        <v>289</v>
-      </c>
-      <c r="K3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>153</v>
-      </c>
-      <c r="S3">
-        <v>41</v>
-      </c>
-      <c r="T3" t="s">
-        <v>154</v>
-      </c>
-      <c r="U3">
-        <v>38</v>
-      </c>
-      <c r="V3">
-        <v>23</v>
-      </c>
-      <c r="W3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>0.24299999999999999</v>
@@ -6410,60 +5853,21 @@
         <v>-0.29799999999999999</v>
       </c>
       <c r="H4" t="s">
-        <v>368</v>
+        <v>220</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K4">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="L4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O4">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="P4" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q4">
-        <v>39</v>
-      </c>
-      <c r="R4" t="s">
-        <v>249</v>
-      </c>
-      <c r="S4">
-        <v>42</v>
-      </c>
-      <c r="T4" t="s">
-        <v>250</v>
-      </c>
-      <c r="U4">
-        <v>33</v>
-      </c>
-      <c r="V4">
-        <v>19</v>
-      </c>
-      <c r="W4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>0.5</v>
@@ -6481,57 +5885,18 @@
         <v>0.188</v>
       </c>
       <c r="H5" t="s">
-        <v>390</v>
+        <v>242</v>
       </c>
       <c r="I5" t="s">
-        <v>391</v>
+        <v>243</v>
       </c>
       <c r="J5" t="s">
-        <v>370</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O5">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="P5" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>282</v>
-      </c>
-      <c r="S5">
-        <v>37</v>
-      </c>
-      <c r="T5" t="s">
-        <v>283</v>
-      </c>
-      <c r="U5">
-        <v>42</v>
-      </c>
-      <c r="V5">
-        <v>23</v>
-      </c>
-      <c r="W5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0.251</v>
@@ -6552,57 +5917,18 @@
         <v>0.19</v>
       </c>
       <c r="H6" t="s">
-        <v>374</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>375</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>330</v>
-      </c>
-      <c r="K6">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="L6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M6">
-        <v>0.125</v>
-      </c>
-      <c r="N6">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="O6">
-        <v>0.25</v>
-      </c>
-      <c r="P6" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q6">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>255</v>
-      </c>
-      <c r="S6">
-        <v>28</v>
-      </c>
-      <c r="T6" t="s">
-        <v>256</v>
-      </c>
-      <c r="U6">
-        <v>40</v>
-      </c>
-      <c r="V6">
-        <v>23</v>
-      </c>
-      <c r="W6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>-9.0999999999999998E-2</v>
@@ -6623,57 +5949,18 @@
         <v>0.35199999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>328</v>
+        <v>180</v>
       </c>
       <c r="I7" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K7">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L7">
-        <v>0.25</v>
-      </c>
-      <c r="M7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N7">
-        <v>0.125</v>
-      </c>
-      <c r="O7">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q7">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>198</v>
-      </c>
-      <c r="S7">
-        <v>22</v>
-      </c>
-      <c r="T7" t="s">
-        <v>199</v>
-      </c>
-      <c r="U7">
-        <v>25</v>
-      </c>
-      <c r="V7">
-        <v>14</v>
-      </c>
-      <c r="W7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>-0.378</v>
@@ -6694,57 +5981,18 @@
         <v>0.193</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K8">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L8">
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="M8">
-        <v>0.5</v>
-      </c>
-      <c r="N8">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="O8">
-        <v>0.75</v>
-      </c>
-      <c r="P8" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q8">
-        <v>46</v>
-      </c>
-      <c r="R8" t="s">
-        <v>168</v>
-      </c>
-      <c r="S8">
-        <v>26</v>
-      </c>
-      <c r="T8" t="s">
-        <v>169</v>
-      </c>
-      <c r="U8">
-        <v>39</v>
-      </c>
-      <c r="V8">
-        <v>25</v>
-      </c>
-      <c r="W8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B9">
         <v>-0.2</v>
@@ -6765,57 +6013,18 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>309</v>
+        <v>161</v>
       </c>
       <c r="I9" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="J9" t="s">
-        <v>302</v>
-      </c>
-      <c r="K9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L9">
-        <v>0.2</v>
-      </c>
-      <c r="M9">
-        <v>0.4</v>
-      </c>
-      <c r="N9">
-        <v>0.6</v>
-      </c>
-      <c r="O9">
-        <v>0.5</v>
-      </c>
-      <c r="P9" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q9">
-        <v>16</v>
-      </c>
-      <c r="R9" t="s">
-        <v>177</v>
-      </c>
-      <c r="S9">
-        <v>26</v>
-      </c>
-      <c r="T9" t="s">
-        <v>178</v>
-      </c>
-      <c r="U9">
-        <v>42</v>
-      </c>
-      <c r="V9">
-        <v>19</v>
-      </c>
-      <c r="W9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B10">
         <v>-0.189</v>
@@ -6836,57 +6045,18 @@
         <v>6.3E-2</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K10">
-        <v>0.35714285714285721</v>
-      </c>
-      <c r="L10">
-        <v>0.3</v>
-      </c>
-      <c r="M10">
-        <v>0.5</v>
-      </c>
-      <c r="N10">
-        <v>0.3</v>
-      </c>
-      <c r="O10">
-        <v>0.5</v>
-      </c>
-      <c r="P10" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10">
-        <v>31</v>
-      </c>
-      <c r="R10" t="s">
-        <v>180</v>
-      </c>
-      <c r="S10">
-        <v>23</v>
-      </c>
-      <c r="T10" t="s">
-        <v>181</v>
-      </c>
-      <c r="U10">
-        <v>25</v>
-      </c>
-      <c r="V10">
-        <v>15</v>
-      </c>
-      <c r="W10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>-0.14899999999999999</v>
@@ -6907,57 +6077,18 @@
         <v>0.161</v>
       </c>
       <c r="H11" t="s">
-        <v>323</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
-      </c>
-      <c r="K11">
-        <v>0.5</v>
-      </c>
-      <c r="L11">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="M11">
-        <v>0.6</v>
-      </c>
-      <c r="N11">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="O11">
-        <v>0.6</v>
-      </c>
-      <c r="P11" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q11">
-        <v>30</v>
-      </c>
-      <c r="R11" t="s">
-        <v>192</v>
-      </c>
-      <c r="S11">
-        <v>37</v>
-      </c>
-      <c r="T11" t="s">
-        <v>193</v>
-      </c>
-      <c r="U11">
-        <v>34</v>
-      </c>
-      <c r="V11">
-        <v>22</v>
-      </c>
-      <c r="W11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B12">
         <v>-9.0999999999999998E-2</v>
@@ -6978,57 +6109,18 @@
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>331</v>
+        <v>183</v>
       </c>
       <c r="I12" t="s">
-        <v>332</v>
+        <v>184</v>
       </c>
       <c r="J12" t="s">
-        <v>308</v>
-      </c>
-      <c r="K12">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L12">
-        <v>0.25</v>
-      </c>
-      <c r="M12">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N12">
-        <v>0.5</v>
-      </c>
-      <c r="O12">
-        <v>0.5</v>
-      </c>
-      <c r="P12" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q12">
-        <v>28</v>
-      </c>
-      <c r="R12" t="s">
-        <v>201</v>
-      </c>
-      <c r="S12">
-        <v>50</v>
-      </c>
-      <c r="T12" t="s">
-        <v>202</v>
-      </c>
-      <c r="U12">
-        <v>31</v>
-      </c>
-      <c r="V12">
-        <v>20</v>
-      </c>
-      <c r="W12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B13">
         <v>-0.22800000000000001</v>
@@ -7049,57 +6141,18 @@
         <v>0.442</v>
       </c>
       <c r="H13" t="s">
-        <v>306</v>
+        <v>158</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>308</v>
-      </c>
-      <c r="K13">
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="L13">
-        <v>0.25</v>
-      </c>
-      <c r="M13">
-        <v>0.5</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0.7</v>
-      </c>
-      <c r="P13" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q13">
-        <v>21</v>
-      </c>
-      <c r="R13" t="s">
-        <v>174</v>
-      </c>
-      <c r="S13">
-        <v>46</v>
-      </c>
-      <c r="T13" t="s">
-        <v>175</v>
-      </c>
-      <c r="U13">
-        <v>16</v>
-      </c>
-      <c r="V13">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B14">
         <v>-0.17499999999999999</v>
@@ -7120,57 +6173,18 @@
         <v>0.26400000000000001</v>
       </c>
       <c r="H14" t="s">
-        <v>314</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>316</v>
-      </c>
-      <c r="K14">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L14">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="M14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N14">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="O14">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14">
-        <v>47</v>
-      </c>
-      <c r="R14" t="s">
-        <v>183</v>
-      </c>
-      <c r="S14">
-        <v>27</v>
-      </c>
-      <c r="T14" t="s">
-        <v>184</v>
-      </c>
-      <c r="U14">
-        <v>40</v>
-      </c>
-      <c r="V14">
-        <v>20</v>
-      </c>
-      <c r="W14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>0.433</v>
@@ -7191,57 +6205,18 @@
         <v>0.24299999999999999</v>
       </c>
       <c r="H15" t="s">
-        <v>382</v>
+        <v>234</v>
       </c>
       <c r="I15" t="s">
-        <v>383</v>
+        <v>235</v>
       </c>
       <c r="J15" t="s">
-        <v>316</v>
-      </c>
-      <c r="K15">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="L15">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="M15">
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="N15">
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="O15">
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="P15" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q15">
-        <v>17</v>
-      </c>
-      <c r="R15" t="s">
-        <v>270</v>
-      </c>
-      <c r="S15">
-        <v>38</v>
-      </c>
-      <c r="T15" t="s">
-        <v>271</v>
-      </c>
-      <c r="U15">
-        <v>21</v>
-      </c>
-      <c r="V15">
-        <v>12</v>
-      </c>
-      <c r="W15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>-0.35699999999999998</v>
@@ -7262,57 +6237,18 @@
         <v>0.45200000000000001</v>
       </c>
       <c r="H16" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
       <c r="I16" t="s">
-        <v>304</v>
+        <v>156</v>
       </c>
       <c r="J16" t="s">
-        <v>305</v>
-      </c>
-      <c r="K16">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="N16">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="O16">
-        <v>0.54545454545454541</v>
-      </c>
-      <c r="P16" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q16">
-        <v>21</v>
-      </c>
-      <c r="R16" t="s">
-        <v>171</v>
-      </c>
-      <c r="S16">
-        <v>25</v>
-      </c>
-      <c r="T16" t="s">
-        <v>172</v>
-      </c>
-      <c r="U16">
-        <v>36</v>
-      </c>
-      <c r="V16">
-        <v>19</v>
-      </c>
-      <c r="W16">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B17">
         <v>0.17499999999999999</v>
@@ -7333,57 +6269,18 @@
         <v>-3.9E-2</v>
       </c>
       <c r="H17" t="s">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
-        <v>358</v>
+        <v>210</v>
       </c>
       <c r="J17" t="s">
-        <v>305</v>
-      </c>
-      <c r="K17">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L17">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M17">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="N17">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="O17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P17" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17">
-        <v>24</v>
-      </c>
-      <c r="R17" t="s">
-        <v>234</v>
-      </c>
-      <c r="S17">
-        <v>37</v>
-      </c>
-      <c r="T17" t="s">
-        <v>235</v>
-      </c>
-      <c r="U17">
-        <v>36</v>
-      </c>
-      <c r="V17">
-        <v>24</v>
-      </c>
-      <c r="W17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B18">
         <v>7.9000000000000001E-2</v>
@@ -7404,57 +6301,18 @@
         <v>0.46700000000000003</v>
       </c>
       <c r="H18" t="s">
-        <v>351</v>
+        <v>203</v>
       </c>
       <c r="I18" t="s">
-        <v>352</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>305</v>
-      </c>
-      <c r="K18">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L18">
-        <v>0.7</v>
-      </c>
-      <c r="M18">
-        <v>0.625</v>
-      </c>
-      <c r="N18">
-        <v>0.7</v>
-      </c>
-      <c r="O18">
-        <v>0.5</v>
-      </c>
-      <c r="P18" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q18">
-        <v>24</v>
-      </c>
-      <c r="R18" t="s">
-        <v>225</v>
-      </c>
-      <c r="S18">
-        <v>19</v>
-      </c>
-      <c r="T18" t="s">
-        <v>226</v>
-      </c>
-      <c r="U18">
-        <v>37</v>
-      </c>
-      <c r="V18">
-        <v>17</v>
-      </c>
-      <c r="W18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -7475,57 +6333,18 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="H19" t="s">
-        <v>339</v>
+        <v>191</v>
       </c>
       <c r="I19" t="s">
-        <v>340</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>327</v>
-      </c>
-      <c r="K19">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="L19">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="M19">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N19">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O19">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P19" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q19">
-        <v>35</v>
-      </c>
-      <c r="R19" t="s">
-        <v>210</v>
-      </c>
-      <c r="S19">
-        <v>35</v>
-      </c>
-      <c r="T19" t="s">
-        <v>211</v>
-      </c>
-      <c r="U19">
-        <v>36</v>
-      </c>
-      <c r="V19">
-        <v>22</v>
-      </c>
-      <c r="W19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>-0.14899999999999999</v>
@@ -7546,57 +6365,18 @@
         <v>0.60699999999999998</v>
       </c>
       <c r="H20" t="s">
-        <v>325</v>
+        <v>177</v>
       </c>
       <c r="I20" t="s">
-        <v>326</v>
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>327</v>
-      </c>
-      <c r="K20">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="L20">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M20">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="N20">
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="O20">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="P20" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q20">
-        <v>31</v>
-      </c>
-      <c r="R20" t="s">
-        <v>195</v>
-      </c>
-      <c r="S20">
-        <v>38</v>
-      </c>
-      <c r="T20" t="s">
-        <v>196</v>
-      </c>
-      <c r="U20">
-        <v>17</v>
-      </c>
-      <c r="V20">
-        <v>9</v>
-      </c>
-      <c r="W20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>-0.443</v>
@@ -7617,57 +6397,18 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H21" t="s">
-        <v>297</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>150</v>
       </c>
       <c r="J21" t="s">
-        <v>299</v>
-      </c>
-      <c r="K21">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0.25</v>
-      </c>
-      <c r="N21">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="O21">
-        <v>0.75</v>
-      </c>
-      <c r="P21" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q21">
-        <v>23</v>
-      </c>
-      <c r="R21" t="s">
-        <v>165</v>
-      </c>
-      <c r="S21">
-        <v>36</v>
-      </c>
-      <c r="T21" t="s">
-        <v>166</v>
-      </c>
-      <c r="U21">
-        <v>26</v>
-      </c>
-      <c r="V21">
-        <v>16</v>
-      </c>
-      <c r="W21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -7688,57 +6429,18 @@
         <v>0.11799999999999999</v>
       </c>
       <c r="H22" t="s">
-        <v>341</v>
+        <v>193</v>
       </c>
       <c r="I22" t="s">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="J22" t="s">
-        <v>299</v>
-      </c>
-      <c r="K22">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L22">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M22">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N22">
-        <v>0.16666666666666671</v>
-      </c>
-      <c r="O22">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="P22" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q22">
-        <v>23</v>
-      </c>
-      <c r="R22" t="s">
-        <v>213</v>
-      </c>
-      <c r="S22">
-        <v>40</v>
-      </c>
-      <c r="T22" t="s">
-        <v>214</v>
-      </c>
-      <c r="U22">
-        <v>27</v>
-      </c>
-      <c r="V22">
-        <v>15</v>
-      </c>
-      <c r="W22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>0.158</v>
@@ -7759,57 +6461,18 @@
         <v>-0.108</v>
       </c>
       <c r="H23" t="s">
-        <v>355</v>
+        <v>207</v>
       </c>
       <c r="I23" t="s">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>338</v>
-      </c>
-      <c r="K23">
-        <v>0.38461538461538458</v>
-      </c>
-      <c r="L23">
-        <v>0.5</v>
-      </c>
-      <c r="M23">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q23">
-        <v>39</v>
-      </c>
-      <c r="R23" t="s">
-        <v>231</v>
-      </c>
-      <c r="S23">
-        <v>41</v>
-      </c>
-      <c r="T23" t="s">
-        <v>232</v>
-      </c>
-      <c r="U23">
-        <v>32</v>
-      </c>
-      <c r="V23">
-        <v>19</v>
-      </c>
-      <c r="W23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>-7.0999999999999994E-2</v>
@@ -7830,57 +6493,18 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="H24" t="s">
-        <v>336</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>337</v>
+        <v>189</v>
       </c>
       <c r="J24" t="s">
-        <v>338</v>
-      </c>
-      <c r="K24">
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="L24">
-        <v>0.5</v>
-      </c>
-      <c r="M24">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q24">
-        <v>21</v>
-      </c>
-      <c r="R24" t="s">
-        <v>207</v>
-      </c>
-      <c r="S24">
-        <v>20</v>
-      </c>
-      <c r="T24" t="s">
-        <v>208</v>
-      </c>
-      <c r="U24">
-        <v>40</v>
-      </c>
-      <c r="V24">
-        <v>20</v>
-      </c>
-      <c r="W24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>0.22</v>
@@ -7901,57 +6525,18 @@
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="H25" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
       <c r="I25" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>365</v>
-      </c>
-      <c r="K25">
-        <v>0.19047619047619049</v>
-      </c>
-      <c r="L25">
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="M25">
-        <v>0.1</v>
-      </c>
-      <c r="N25">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q25">
-        <v>28</v>
-      </c>
-      <c r="R25" t="s">
-        <v>246</v>
-      </c>
-      <c r="S25">
-        <v>25</v>
-      </c>
-      <c r="T25" t="s">
-        <v>247</v>
-      </c>
-      <c r="U25">
-        <v>36</v>
-      </c>
-      <c r="V25">
-        <v>20</v>
-      </c>
-      <c r="W25">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B26">
         <v>0.20499999999999999</v>
@@ -7972,57 +6557,18 @@
         <v>8.8999999999999996E-2</v>
       </c>
       <c r="H26" t="s">
-        <v>363</v>
+        <v>215</v>
       </c>
       <c r="I26" t="s">
-        <v>364</v>
+        <v>216</v>
       </c>
       <c r="J26" t="s">
-        <v>365</v>
-      </c>
-      <c r="K26">
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="L26">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q26">
-        <v>27</v>
-      </c>
-      <c r="R26" t="s">
-        <v>243</v>
-      </c>
-      <c r="S26">
-        <v>43</v>
-      </c>
-      <c r="T26" t="s">
-        <v>244</v>
-      </c>
-      <c r="U26">
-        <v>21</v>
-      </c>
-      <c r="V26">
-        <v>14</v>
-      </c>
-      <c r="W26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B27">
         <v>5.5E-2</v>
@@ -8043,57 +6589,18 @@
         <v>0.57199999999999995</v>
       </c>
       <c r="H27" t="s">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
-        <v>349</v>
+        <v>201</v>
       </c>
       <c r="J27" t="s">
-        <v>350</v>
-      </c>
-      <c r="K27">
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="L27">
-        <v>0.3</v>
-      </c>
-      <c r="M27">
-        <v>0.25</v>
-      </c>
-      <c r="N27">
-        <v>0.5</v>
-      </c>
-      <c r="O27">
-        <v>0.75</v>
-      </c>
-      <c r="P27" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q27">
-        <v>25</v>
-      </c>
-      <c r="R27" t="s">
-        <v>222</v>
-      </c>
-      <c r="S27">
-        <v>41</v>
-      </c>
-      <c r="T27" t="s">
-        <v>223</v>
-      </c>
-      <c r="U27">
-        <v>35</v>
-      </c>
-      <c r="V27">
-        <v>19</v>
-      </c>
-      <c r="W27">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <v>0.193</v>
@@ -8114,57 +6621,18 @@
         <v>-3.5000000000000003E-2</v>
       </c>
       <c r="H28" t="s">
-        <v>361</v>
+        <v>213</v>
       </c>
       <c r="I28" t="s">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="J28" t="s">
-        <v>350</v>
-      </c>
-      <c r="K28">
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="L28">
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0.45454545454545447</v>
-      </c>
-      <c r="O28">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="P28" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q28">
-        <v>25</v>
-      </c>
-      <c r="R28" t="s">
-        <v>240</v>
-      </c>
-      <c r="S28">
-        <v>34</v>
-      </c>
-      <c r="T28" t="s">
-        <v>241</v>
-      </c>
-      <c r="U28">
-        <v>29</v>
-      </c>
-      <c r="V28">
-        <v>16</v>
-      </c>
-      <c r="W28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B29">
         <v>0.41699999999999998</v>
@@ -8185,57 +6653,18 @@
         <v>0.183</v>
       </c>
       <c r="H29" t="s">
-        <v>380</v>
+        <v>232</v>
       </c>
       <c r="I29" t="s">
-        <v>381</v>
+        <v>233</v>
       </c>
       <c r="J29" t="s">
-        <v>335</v>
-      </c>
-      <c r="K29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L29">
-        <v>0.75</v>
-      </c>
-      <c r="M29">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N29">
-        <v>0.5</v>
-      </c>
-      <c r="O29">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="P29" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q29">
-        <v>32</v>
-      </c>
-      <c r="R29" t="s">
-        <v>267</v>
-      </c>
-      <c r="S29">
-        <v>33</v>
-      </c>
-      <c r="T29" t="s">
-        <v>268</v>
-      </c>
-      <c r="U29">
-        <v>42</v>
-      </c>
-      <c r="V29">
-        <v>22</v>
-      </c>
-      <c r="W29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B30">
         <v>-9.0999999999999998E-2</v>
@@ -8256,57 +6685,18 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>333</v>
+        <v>185</v>
       </c>
       <c r="I30" t="s">
-        <v>334</v>
+        <v>186</v>
       </c>
       <c r="J30" t="s">
-        <v>335</v>
-      </c>
-      <c r="K30">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L30">
-        <v>0.5</v>
-      </c>
-      <c r="M30">
-        <v>0.6</v>
-      </c>
-      <c r="N30">
-        <v>0.5</v>
-      </c>
-      <c r="O30">
-        <v>0.6</v>
-      </c>
-      <c r="P30" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q30">
-        <v>18</v>
-      </c>
-      <c r="R30" t="s">
-        <v>204</v>
-      </c>
-      <c r="S30">
-        <v>40</v>
-      </c>
-      <c r="T30" t="s">
-        <v>205</v>
-      </c>
-      <c r="U30">
-        <v>31</v>
-      </c>
-      <c r="V30">
-        <v>19</v>
-      </c>
-      <c r="W30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B31">
         <v>0.03</v>
@@ -8327,57 +6717,18 @@
         <v>0.60399999999999998</v>
       </c>
       <c r="H31" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>346</v>
+        <v>198</v>
       </c>
       <c r="J31" t="s">
-        <v>347</v>
-      </c>
-      <c r="K31">
-        <v>0.35294117647058831</v>
-      </c>
-      <c r="L31">
-        <v>0.36363636363636359</v>
-      </c>
-      <c r="M31">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N31">
-        <v>0.45454545454545447</v>
-      </c>
-      <c r="O31">
-        <v>0.5</v>
-      </c>
-      <c r="P31" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q31">
-        <v>34</v>
-      </c>
-      <c r="R31" t="s">
-        <v>219</v>
-      </c>
-      <c r="S31">
-        <v>35</v>
-      </c>
-      <c r="T31" t="s">
-        <v>220</v>
-      </c>
-      <c r="U31">
-        <v>38</v>
-      </c>
-      <c r="V31">
-        <v>21</v>
-      </c>
-      <c r="W31">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B32">
         <v>0.182</v>
@@ -8398,57 +6749,18 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="H32" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="I32" t="s">
-        <v>360</v>
+        <v>212</v>
       </c>
       <c r="J32" t="s">
-        <v>347</v>
-      </c>
-      <c r="K32">
-        <v>0.23529411764705879</v>
-      </c>
-      <c r="L32">
-        <v>0.3</v>
-      </c>
-      <c r="M32">
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="N32">
-        <v>0.5</v>
-      </c>
-      <c r="O32">
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="P32" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q32">
-        <v>21</v>
-      </c>
-      <c r="R32" t="s">
-        <v>237</v>
-      </c>
-      <c r="S32">
-        <v>24</v>
-      </c>
-      <c r="T32" t="s">
-        <v>238</v>
-      </c>
-      <c r="U32">
-        <v>39</v>
-      </c>
-      <c r="V32">
-        <v>20</v>
-      </c>
-      <c r="W32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>-0.17399999999999999</v>
@@ -8469,57 +6781,18 @@
         <v>0.63900000000000001</v>
       </c>
       <c r="H33" t="s">
-        <v>317</v>
+        <v>169</v>
       </c>
       <c r="I33" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
       <c r="J33" t="s">
-        <v>319</v>
-      </c>
-      <c r="K33">
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="L33">
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="M33">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N33">
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="O33">
-        <v>0.14285714285714279</v>
-      </c>
-      <c r="P33" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q33">
-        <v>21</v>
-      </c>
-      <c r="R33" t="s">
-        <v>186</v>
-      </c>
-      <c r="S33">
-        <v>31</v>
-      </c>
-      <c r="T33" t="s">
-        <v>187</v>
-      </c>
-      <c r="U33">
-        <v>30</v>
-      </c>
-      <c r="V33">
-        <v>17</v>
-      </c>
-      <c r="W33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>0.745</v>
@@ -8540,57 +6813,18 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="H34" t="s">
-        <v>388</v>
+        <v>240</v>
       </c>
       <c r="I34" t="s">
-        <v>389</v>
+        <v>241</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
-      </c>
-      <c r="K34">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N34">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q34">
-        <v>22</v>
-      </c>
-      <c r="R34" t="s">
-        <v>279</v>
-      </c>
-      <c r="S34">
-        <v>25</v>
-      </c>
-      <c r="T34" t="s">
-        <v>280</v>
-      </c>
-      <c r="U34">
-        <v>32</v>
-      </c>
-      <c r="V34">
-        <v>16</v>
-      </c>
-      <c r="W34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B35">
         <v>0.14899999999999999</v>
@@ -8611,57 +6845,18 @@
         <v>0.54600000000000004</v>
       </c>
       <c r="H35" t="s">
-        <v>353</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>354</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
-      </c>
-      <c r="K35">
-        <v>0.75</v>
-      </c>
-      <c r="L35">
-        <v>0.8</v>
-      </c>
-      <c r="M35">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N35">
-        <v>0.8</v>
-      </c>
-      <c r="O35">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P35" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q35">
-        <v>8</v>
-      </c>
-      <c r="R35" t="s">
-        <v>228</v>
-      </c>
-      <c r="S35">
-        <v>43</v>
-      </c>
-      <c r="T35" t="s">
-        <v>229</v>
-      </c>
-      <c r="U35">
-        <v>20</v>
-      </c>
-      <c r="V35">
-        <v>12</v>
-      </c>
-      <c r="W35">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>-0.5</v>
@@ -8682,57 +6877,18 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="H36" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="J36" t="s">
-        <v>286</v>
-      </c>
-      <c r="K36">
-        <v>0.5</v>
-      </c>
-      <c r="L36">
-        <v>0.25</v>
-      </c>
-      <c r="M36">
-        <v>0.75</v>
-      </c>
-      <c r="N36">
-        <v>0.5</v>
-      </c>
-      <c r="O36">
-        <v>0.75</v>
-      </c>
-      <c r="P36" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q36">
-        <v>24</v>
-      </c>
-      <c r="R36" t="s">
-        <v>162</v>
-      </c>
-      <c r="S36">
-        <v>32</v>
-      </c>
-      <c r="T36" t="s">
-        <v>163</v>
-      </c>
-      <c r="U36">
-        <v>42</v>
-      </c>
-      <c r="V36">
-        <v>24</v>
-      </c>
-      <c r="W36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0.33300000000000002</v>
@@ -8753,57 +6909,18 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H37" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="J37" t="s">
-        <v>286</v>
-      </c>
-      <c r="K37">
-        <v>0.25</v>
-      </c>
-      <c r="L37">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O37">
-        <v>0.5</v>
-      </c>
-      <c r="P37" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q37">
-        <v>31</v>
-      </c>
-      <c r="R37" t="s">
-        <v>261</v>
-      </c>
-      <c r="S37">
-        <v>20</v>
-      </c>
-      <c r="T37" t="s">
-        <v>262</v>
-      </c>
-      <c r="U37">
-        <v>46</v>
-      </c>
-      <c r="V37">
-        <v>25</v>
-      </c>
-      <c r="W37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>-0.77500000000000002</v>
@@ -8824,57 +6941,18 @@
         <v>0.17899999999999999</v>
       </c>
       <c r="H38" t="s">
-        <v>284</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>137</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
-      </c>
-      <c r="K38">
-        <v>0.625</v>
-      </c>
-      <c r="L38">
-        <v>0.25</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>0.75</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q38">
-        <v>27</v>
-      </c>
-      <c r="R38" t="s">
-        <v>150</v>
-      </c>
-      <c r="S38">
-        <v>34</v>
-      </c>
-      <c r="T38" t="s">
-        <v>151</v>
-      </c>
-      <c r="U38">
-        <v>33</v>
-      </c>
-      <c r="V38">
-        <v>20</v>
-      </c>
-      <c r="W38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>0.25800000000000001</v>
@@ -8895,57 +6973,18 @@
         <v>0.66600000000000004</v>
       </c>
       <c r="H39" t="s">
-        <v>376</v>
+        <v>228</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="J39" t="s">
-        <v>286</v>
-      </c>
-      <c r="K39">
-        <v>0.375</v>
-      </c>
-      <c r="L39">
-        <v>0.5</v>
-      </c>
-      <c r="M39">
-        <v>0.25</v>
-      </c>
-      <c r="N39">
-        <v>0.75</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q39">
-        <v>26</v>
-      </c>
-      <c r="R39" t="s">
-        <v>258</v>
-      </c>
-      <c r="S39">
-        <v>25</v>
-      </c>
-      <c r="T39" t="s">
-        <v>259</v>
-      </c>
-      <c r="U39">
-        <v>35</v>
-      </c>
-      <c r="V39">
-        <v>19</v>
-      </c>
-      <c r="W39">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B40">
         <v>0.25</v>
@@ -8966,57 +7005,18 @@
         <v>-1.4E-2</v>
       </c>
       <c r="H40" t="s">
-        <v>371</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
-        <v>372</v>
+        <v>224</v>
       </c>
       <c r="J40" t="s">
-        <v>373</v>
-      </c>
-      <c r="K40">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L40">
-        <v>0.125</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0.25</v>
-      </c>
-      <c r="O40">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="P40" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q40">
-        <v>22</v>
-      </c>
-      <c r="R40" t="s">
-        <v>252</v>
-      </c>
-      <c r="S40">
-        <v>47</v>
-      </c>
-      <c r="T40" t="s">
-        <v>253</v>
-      </c>
-      <c r="U40">
-        <v>42</v>
-      </c>
-      <c r="V40">
-        <v>22</v>
-      </c>
-      <c r="W40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B41">
         <v>-0.6</v>
@@ -9037,57 +7037,18 @@
         <v>0.23799999999999999</v>
       </c>
       <c r="H41" t="s">
-        <v>293</v>
+        <v>145</v>
       </c>
       <c r="I41" t="s">
-        <v>294</v>
+        <v>146</v>
       </c>
       <c r="J41" t="s">
-        <v>295</v>
-      </c>
-      <c r="K41">
-        <v>0.375</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0.6</v>
-      </c>
-      <c r="N41">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O41">
-        <v>0.5</v>
-      </c>
-      <c r="P41" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q41">
-        <v>22</v>
-      </c>
-      <c r="R41" t="s">
-        <v>159</v>
-      </c>
-      <c r="S41">
-        <v>25</v>
-      </c>
-      <c r="T41" t="s">
-        <v>160</v>
-      </c>
-      <c r="U41">
-        <v>42</v>
-      </c>
-      <c r="V41">
-        <v>21</v>
-      </c>
-      <c r="W41">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -9108,57 +7069,18 @@
         <v>0.41</v>
       </c>
       <c r="H42" t="s">
-        <v>343</v>
+        <v>195</v>
       </c>
       <c r="I42" t="s">
-        <v>344</v>
+        <v>196</v>
       </c>
       <c r="J42" t="s">
-        <v>295</v>
-      </c>
-      <c r="K42">
-        <v>0.5</v>
-      </c>
-      <c r="L42">
-        <v>0.5</v>
-      </c>
-      <c r="M42">
-        <v>0.5</v>
-      </c>
-      <c r="N42">
-        <v>0.6</v>
-      </c>
-      <c r="O42">
-        <v>0.6</v>
-      </c>
-      <c r="P42" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q42">
-        <v>38</v>
-      </c>
-      <c r="R42" t="s">
-        <v>216</v>
-      </c>
-      <c r="S42">
-        <v>34</v>
-      </c>
-      <c r="T42" t="s">
-        <v>217</v>
-      </c>
-      <c r="U42">
-        <v>35</v>
-      </c>
-      <c r="V42">
-        <v>20</v>
-      </c>
-      <c r="W42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B43">
         <v>0.40799999999999997</v>
@@ -9179,57 +7101,18 @@
         <v>0.48</v>
       </c>
       <c r="H43" t="s">
-        <v>378</v>
+        <v>230</v>
       </c>
       <c r="I43" t="s">
-        <v>379</v>
+        <v>231</v>
       </c>
       <c r="J43" t="s">
-        <v>292</v>
-      </c>
-      <c r="K43">
-        <v>0.6</v>
-      </c>
-      <c r="L43">
-        <v>0.8</v>
-      </c>
-      <c r="M43">
-        <v>0.4</v>
-      </c>
-      <c r="N43">
-        <v>0.25</v>
-      </c>
-      <c r="O43">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="P43" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q43">
-        <v>22</v>
-      </c>
-      <c r="R43" t="s">
-        <v>264</v>
-      </c>
-      <c r="S43">
-        <v>23</v>
-      </c>
-      <c r="T43" t="s">
-        <v>265</v>
-      </c>
-      <c r="U43">
-        <v>38</v>
-      </c>
-      <c r="V43">
-        <v>21</v>
-      </c>
-      <c r="W43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B44">
         <v>-0.66700000000000004</v>
@@ -9250,57 +7133,18 @@
         <v>-0.3</v>
       </c>
       <c r="H44" t="s">
-        <v>290</v>
+        <v>142</v>
       </c>
       <c r="I44" t="s">
-        <v>291</v>
+        <v>143</v>
       </c>
       <c r="J44" t="s">
-        <v>292</v>
-      </c>
-      <c r="K44">
-        <v>0.4</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N44">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q44">
-        <v>34</v>
-      </c>
-      <c r="R44" t="s">
-        <v>156</v>
-      </c>
-      <c r="S44">
-        <v>30</v>
-      </c>
-      <c r="T44" t="s">
-        <v>157</v>
-      </c>
-      <c r="U44">
-        <v>33</v>
-      </c>
-      <c r="V44">
-        <v>20</v>
-      </c>
-      <c r="W44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0.59799999999999998</v>
@@ -9321,57 +7165,18 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="H45" t="s">
-        <v>384</v>
+        <v>236</v>
       </c>
       <c r="I45" t="s">
-        <v>385</v>
+        <v>237</v>
       </c>
       <c r="J45" t="s">
-        <v>322</v>
-      </c>
-      <c r="K45">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="L45">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0.75</v>
-      </c>
-      <c r="P45" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q45">
-        <v>25</v>
-      </c>
-      <c r="R45" t="s">
-        <v>273</v>
-      </c>
-      <c r="S45">
-        <v>38</v>
-      </c>
-      <c r="T45" t="s">
-        <v>274</v>
-      </c>
-      <c r="U45">
-        <v>24</v>
-      </c>
-      <c r="V45">
-        <v>13</v>
-      </c>
-      <c r="W45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>-0.158</v>
@@ -9392,56 +7197,17 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="H46" t="s">
-        <v>320</v>
+        <v>172</v>
       </c>
       <c r="I46" t="s">
-        <v>321</v>
+        <v>173</v>
       </c>
       <c r="J46" t="s">
-        <v>322</v>
-      </c>
-      <c r="K46">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L46">
-        <v>0.6</v>
-      </c>
-      <c r="M46">
-        <v>0.75</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0.75</v>
-      </c>
-      <c r="P46" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q46">
-        <v>17</v>
-      </c>
-      <c r="R46" t="s">
-        <v>189</v>
-      </c>
-      <c r="S46">
-        <v>47</v>
-      </c>
-      <c r="T46" t="s">
-        <v>190</v>
-      </c>
-      <c r="U46">
-        <v>37</v>
-      </c>
-      <c r="V46">
-        <v>21</v>
-      </c>
-      <c r="W46">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.35"/>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="49" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="50" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="51" hidden="1" x14ac:dyDescent="0.35"/>

--- a/data/overall_data/adventure_result.xlsx
+++ b/data/overall_data/adventure_result.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JHU\Research\Honey's Lab\Agency_choice_memory\reproduce\data\overall_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32F705F-3CB1-4D08-BEF8-8DD6EEC374AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAD734-8F5F-4BC7-A0E7-B63DCE5F050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="1220" windowWidth="18110" windowHeight="13740" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
+    <workbookView xWindow="3580" yWindow="1450" windowWidth="15390" windowHeight="13740" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_conds" sheetId="15" r:id="rId1"/>
-    <sheet name="yoke45" sheetId="14" r:id="rId2"/>
+    <sheet name="corr_free22" sheetId="2" r:id="rId2"/>
+    <sheet name="yoke45" sheetId="14" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="242">
   <si>
     <t>sem-ef</t>
   </si>
@@ -45,733 +44,724 @@
     <t>caus-ef</t>
   </si>
   <si>
+    <t>subj</t>
+  </si>
+  <si>
+    <t>prcnt_want</t>
+  </si>
+  <si>
+    <t>wn</t>
+  </si>
+  <si>
+    <t>rcl</t>
+  </si>
+  <si>
+    <t>inds</t>
+  </si>
+  <si>
+    <t>nghb-ef</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>yoke</t>
+  </si>
+  <si>
+    <t>pasv</t>
+  </si>
+  <si>
+    <t>overall_rcl</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>tv_rate</t>
+  </si>
+  <si>
+    <t>sub2_1001</t>
+  </si>
+  <si>
+    <t>sub3_1002</t>
+  </si>
+  <si>
+    <t>sub4_1003</t>
+  </si>
+  <si>
+    <t>sub5_1004</t>
+  </si>
+  <si>
+    <t>sub6_1005</t>
+  </si>
+  <si>
+    <t>sub7_1006</t>
+  </si>
+  <si>
+    <t>sub8_1007</t>
+  </si>
+  <si>
+    <t>sub11_1010</t>
+  </si>
+  <si>
+    <t>sub12_1011</t>
+  </si>
+  <si>
+    <t>sub13_1012</t>
+  </si>
+  <si>
+    <t>sub14_1013</t>
+  </si>
+  <si>
+    <t>sub15_1014</t>
+  </si>
+  <si>
+    <t>sub16_1015</t>
+  </si>
+  <si>
+    <t>sub18_1017</t>
+  </si>
+  <si>
+    <t>sub19_1018</t>
+  </si>
+  <si>
+    <t>sub20_1019</t>
+  </si>
+  <si>
+    <t>sub21_1020</t>
+  </si>
+  <si>
+    <t>sub22_1021</t>
+  </si>
+  <si>
+    <t>sub23_1022</t>
+  </si>
+  <si>
+    <t>sub26_1025</t>
+  </si>
+  <si>
+    <t>sub27_1026</t>
+  </si>
+  <si>
+    <t>sub28_1027</t>
+  </si>
+  <si>
+    <t>to2_sub2023</t>
+  </si>
+  <si>
+    <t>to2_sub2040</t>
+  </si>
+  <si>
+    <t>to3_sub2026</t>
+  </si>
+  <si>
+    <t>to3_sub2033</t>
+  </si>
+  <si>
+    <t>to3_sub2037</t>
+  </si>
+  <si>
+    <t>to4_sub2001</t>
+  </si>
+  <si>
+    <t>to4_sub2052</t>
+  </si>
+  <si>
+    <t>to5_sub2008</t>
+  </si>
+  <si>
+    <t>to6_sub2016</t>
+  </si>
+  <si>
+    <t>to6_sub2024</t>
+  </si>
+  <si>
+    <t>to7_sub2012</t>
+  </si>
+  <si>
+    <t>to7_sub2057</t>
+  </si>
+  <si>
+    <t>to8_sub2004</t>
+  </si>
+  <si>
+    <t>to8_sub2039</t>
+  </si>
+  <si>
+    <t>to11_sub2002</t>
+  </si>
+  <si>
+    <t>to11_sub2003</t>
+  </si>
+  <si>
+    <t>to12_sub2007</t>
+  </si>
+  <si>
+    <t>to12_sub2035</t>
+  </si>
+  <si>
+    <t>to13_sub2000</t>
+  </si>
+  <si>
+    <t>to13_sub2058</t>
+  </si>
+  <si>
+    <t>to14_sub2030</t>
+  </si>
+  <si>
+    <t>to14_sub2032</t>
+  </si>
+  <si>
+    <t>to15_sub2018</t>
+  </si>
+  <si>
+    <t>to15_sub2049</t>
+  </si>
+  <si>
+    <t>to16_sub2006</t>
+  </si>
+  <si>
+    <t>to16_sub2044</t>
+  </si>
+  <si>
+    <t>to18_sub2025</t>
+  </si>
+  <si>
+    <t>to18_sub2041</t>
+  </si>
+  <si>
+    <t>to19_sub2011</t>
+  </si>
+  <si>
+    <t>to19_sub2038</t>
+  </si>
+  <si>
+    <t>to19_sub2047</t>
+  </si>
+  <si>
+    <t>to20_sub2046</t>
+  </si>
+  <si>
+    <t>to20_sub2051</t>
+  </si>
+  <si>
+    <t>to21_sub2009</t>
+  </si>
+  <si>
+    <t>to21_sub2053</t>
+  </si>
+  <si>
+    <t>to22_sub2020</t>
+  </si>
+  <si>
+    <t>to22_sub2029</t>
+  </si>
+  <si>
+    <t>to23_sub2034</t>
+  </si>
+  <si>
+    <t>to23_sub2043</t>
+  </si>
+  <si>
+    <t>to26_sub2048</t>
+  </si>
+  <si>
+    <t>to26_sub2056</t>
+  </si>
+  <si>
+    <t>to27_sub2021</t>
+  </si>
+  <si>
+    <t>to27_sub2031</t>
+  </si>
+  <si>
+    <t>to28_sub2019</t>
+  </si>
+  <si>
+    <t>to28_sub2042</t>
+  </si>
+  <si>
+    <t>to3_sub3001</t>
+  </si>
+  <si>
+    <t>to26_sub3002</t>
+  </si>
+  <si>
+    <t>to28_sub3003</t>
+  </si>
+  <si>
+    <t>to12_sub3004</t>
+  </si>
+  <si>
+    <t>to6_sub3005</t>
+  </si>
+  <si>
+    <t>to27_sub3006</t>
+  </si>
+  <si>
+    <t>to27_sub3007</t>
+  </si>
+  <si>
+    <t>to14_sub3008</t>
+  </si>
+  <si>
+    <t>to27_sub3009</t>
+  </si>
+  <si>
+    <t>to23_sub3010</t>
+  </si>
+  <si>
+    <t>to5_sub3011</t>
+  </si>
+  <si>
+    <t>to21_sub3012</t>
+  </si>
+  <si>
+    <t>to6_sub3013</t>
+  </si>
+  <si>
+    <t>to27_sub3014</t>
+  </si>
+  <si>
+    <t>to5_sub3015</t>
+  </si>
+  <si>
+    <t>to20_sub3016</t>
+  </si>
+  <si>
+    <t>to22_sub3017</t>
+  </si>
+  <si>
+    <t>to14_sub3018</t>
+  </si>
+  <si>
+    <t>to18_sub3019</t>
+  </si>
+  <si>
+    <t>to27_sub3020</t>
+  </si>
+  <si>
+    <t>to18_sub3021</t>
+  </si>
+  <si>
+    <t>to15_sub3022</t>
+  </si>
+  <si>
+    <t>to22_sub3023</t>
+  </si>
+  <si>
+    <t>to23_sub3024</t>
+  </si>
+  <si>
+    <t>to8_sub3025</t>
+  </si>
+  <si>
+    <t>to16_sub3026</t>
+  </si>
+  <si>
+    <t>to2_sub3027</t>
+  </si>
+  <si>
+    <t>to3_sub3028</t>
+  </si>
+  <si>
+    <t>to11_sub3029</t>
+  </si>
+  <si>
+    <t>to20_sub3030</t>
+  </si>
+  <si>
+    <t>to16_sub3031</t>
+  </si>
+  <si>
+    <t>to28_sub3032</t>
+  </si>
+  <si>
+    <t>to4_sub3033</t>
+  </si>
+  <si>
+    <t>to12_sub3034</t>
+  </si>
+  <si>
+    <t>to8_sub3035</t>
+  </si>
+  <si>
+    <t>to21_sub3036</t>
+  </si>
+  <si>
+    <t>to11_sub3037</t>
+  </si>
+  <si>
+    <t>to13_sub3038</t>
+  </si>
+  <si>
+    <t>to19_sub3039</t>
+  </si>
+  <si>
+    <t>to15_sub3040</t>
+  </si>
+  <si>
+    <t>to7_sub3041</t>
+  </si>
+  <si>
+    <t>to2_sub3042</t>
+  </si>
+  <si>
+    <t>to19_sub3043</t>
+  </si>
+  <si>
+    <t>to3_sub3044</t>
+  </si>
+  <si>
+    <t>to7_sub3045</t>
+  </si>
+  <si>
+    <t>to13_sub3046</t>
+  </si>
+  <si>
+    <t>to26_sub3047</t>
+  </si>
+  <si>
+    <t>to14_sub3048</t>
+  </si>
+  <si>
+    <t>to4_sub3049</t>
+  </si>
+  <si>
+    <t>0,0,1,0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>2,7,9,11,13,17,19,21</t>
+  </si>
+  <si>
+    <t>0,0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,7,9,11,15,18</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,0,0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>2,7,9,12,14,16,20,22,24,26</t>
+  </si>
+  <si>
+    <t>0,0,0,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,7,9,12,14,18,20,22</t>
+  </si>
+  <si>
+    <t>1,0,1,1,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1,1,1,0,1,0,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,10,13,16,18,20,23,27,29,32,34,38,40,42</t>
+  </si>
+  <si>
+    <t>1,1,0,1,0,1,0,0,1,1,0,0,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,0,0,0,0,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>2,6,10,12,14,17,19,22,26,28,30,33,35,39,42</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,0,1,0</t>
+  </si>
+  <si>
+    <t>2,4,6,8,10,13,16,19,22,24,26,28,30,33,35,39,41,44</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,0,0,1,0,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,0,0,0,0,1,0,1,0,1,0</t>
+  </si>
+  <si>
+    <t>2,6,10,13,15,17,20,22,24,27,29,31,35,38</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,0,1,0,0,1,1,0,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,1,0,1,0,0,0,0,1,0,1,0</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0,0,1,1,1,1,0,1,1,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0,1,0,1,0,0,0,1,0,0</t>
+  </si>
+  <si>
+    <t>2,4,8,11,14,17,21,23,26,28,32,34,36,38</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,0,0,0,0,0,0,1,1,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,1,0,0,0,1,0,0,0,0,1,1,0,0</t>
+  </si>
+  <si>
+    <t>2,6,8,11,14,17,19,21,25,29,31,33,35,38,40,44,46,48</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,1,0,1,1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,1,0,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,10,12,14,16,19,22,24,31,38,42,44,47</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>2,7,9,11,13,15,19,21,23</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0,0,1,1,1,0,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0,0,1,1,0,1,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,0,1,1,1,0,1,1,0,0,1,1,1,0,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,4,8,10,12,15,17,19,22,24,26,28,30,33,35,37,41,44</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,0,1,0,1,0,0,0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,1,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,4,6,8,12,14,16,18,20,23,26,28,30,32</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1,1,0,1,0,1,0,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,0,1,1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,1,0</t>
+  </si>
+  <si>
+    <t>1,0,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>2,7,9,12,14,18,21</t>
+  </si>
+  <si>
+    <t>0,1,0,0,0,1,1,0,0,0,1,1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,1,1,1,0,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>2,4,8,10,12,14,16,18,28,30,33,35,37</t>
+  </si>
+  <si>
+    <t>1,1,0,0,0,1,1,1,1,0,0,1,0,1,0,0,0,1</t>
+  </si>
+  <si>
+    <t>1,1,1,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,1,1,1,0,0,0,0,0,0,1,0,0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,0,1,0,0,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,0,1,1,0</t>
+  </si>
+  <si>
+    <t>0,1,0,0,1,1,1,0,1,1,0,1,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,1,0,1,1,1,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,8,10,13,16,19,22,26,28,30,32,35,37,41,43,45</t>
+  </si>
+  <si>
+    <t>0,1,0,1,0,1,0,0,1,1,0,1,1,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,0,1,0,0,0,0,0,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,10,12,16,18,20,23,26,28,30,34,36,39,41,45,47,50</t>
+  </si>
+  <si>
+    <t>1,0,1,0,1,1,1,0,0,0,0,0,1,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,1,1,1,1,0,0,1,0,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,1,1,0,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>0,1,1,0,0,0,0,0,0,0,0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,1,1,0,0,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,1,0,1,0,1,1,0,1,1,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,0,1,0,1,0,0,1,0,0,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,0,1,1,0,1,0,0,1,0,0,1,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,1,1,0,0,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,1,0,1,0,1,0,0,1,1,1,0,1,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,0,0,1,0,1,1,1,1,1,0,1,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,10,13,16,18,20,24,26,28,30,32,36,38,40,42,45,47,51,53,55</t>
+  </si>
+  <si>
+    <t>0,1,0,0,1,1,0,0,0,1,0,0,1,0,1,1,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,1,0,0,1,0,0,1,0,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,8,10,14,16,19,22,24,26,30,32,34,37,39,43,45,47</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1,1,1,0,1,0,1,0,1,0,0</t>
+  </si>
+  <si>
+    <t>0,0,0,0,1,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,6,10,12,14,16,19,22,24,31,38,40,44,46,49</t>
+  </si>
+  <si>
+    <t>1,0,0,1,1,0,1,0,1,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>0,1,1,0,1,0,0,1</t>
+  </si>
+  <si>
+    <t>1,0,0,0,0,1,0,0</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,0,1,0,0,0</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,0,1,1,0,0,0,0,0,0,1,1,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,1,0,1,1,0,0,1,0,0,0,0,0,1,1,0,1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,0,0,1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1,1,0,1,0,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,1,0,0,1,1,0,1,0,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>0,0,1,1,1,0,0,0,1,0,1,1,0,1,1,0,0,1</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>idv-sem-ef</t>
   </si>
   <si>
     <t>idv-caus-ef</t>
-  </si>
-  <si>
-    <t>subj</t>
-  </si>
-  <si>
-    <t>wn_rcl_r</t>
-  </si>
-  <si>
-    <t>prcnt_want</t>
-  </si>
-  <si>
-    <t>wn</t>
-  </si>
-  <si>
-    <t>rcl</t>
-  </si>
-  <si>
-    <t>inds</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>sem-caus</t>
-  </si>
-  <si>
-    <t>nghb-ef</t>
-  </si>
-  <si>
-    <t>cond</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>yoke</t>
-  </si>
-  <si>
-    <t>pasv</t>
-  </si>
-  <si>
-    <t>overall_rcl</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>tv_rate</t>
-  </si>
-  <si>
-    <t>sub2_1001</t>
-  </si>
-  <si>
-    <t>sub3_1002</t>
-  </si>
-  <si>
-    <t>sub4_1003</t>
-  </si>
-  <si>
-    <t>sub5_1004</t>
-  </si>
-  <si>
-    <t>sub6_1005</t>
-  </si>
-  <si>
-    <t>sub7_1006</t>
-  </si>
-  <si>
-    <t>sub8_1007</t>
-  </si>
-  <si>
-    <t>sub11_1010</t>
-  </si>
-  <si>
-    <t>sub12_1011</t>
-  </si>
-  <si>
-    <t>sub13_1012</t>
-  </si>
-  <si>
-    <t>sub14_1013</t>
-  </si>
-  <si>
-    <t>sub15_1014</t>
-  </si>
-  <si>
-    <t>sub16_1015</t>
-  </si>
-  <si>
-    <t>sub18_1017</t>
-  </si>
-  <si>
-    <t>sub19_1018</t>
-  </si>
-  <si>
-    <t>sub20_1019</t>
-  </si>
-  <si>
-    <t>sub21_1020</t>
-  </si>
-  <si>
-    <t>sub22_1021</t>
-  </si>
-  <si>
-    <t>sub23_1022</t>
-  </si>
-  <si>
-    <t>sub26_1025</t>
-  </si>
-  <si>
-    <t>sub27_1026</t>
-  </si>
-  <si>
-    <t>sub28_1027</t>
-  </si>
-  <si>
-    <t>to2_sub2023</t>
-  </si>
-  <si>
-    <t>to2_sub2040</t>
-  </si>
-  <si>
-    <t>to3_sub2026</t>
-  </si>
-  <si>
-    <t>to3_sub2033</t>
-  </si>
-  <si>
-    <t>to3_sub2037</t>
-  </si>
-  <si>
-    <t>to4_sub2001</t>
-  </si>
-  <si>
-    <t>to4_sub2052</t>
-  </si>
-  <si>
-    <t>to5_sub2008</t>
-  </si>
-  <si>
-    <t>to6_sub2016</t>
-  </si>
-  <si>
-    <t>to6_sub2024</t>
-  </si>
-  <si>
-    <t>to7_sub2012</t>
-  </si>
-  <si>
-    <t>to7_sub2057</t>
-  </si>
-  <si>
-    <t>to8_sub2004</t>
-  </si>
-  <si>
-    <t>to8_sub2039</t>
-  </si>
-  <si>
-    <t>to11_sub2002</t>
-  </si>
-  <si>
-    <t>to11_sub2003</t>
-  </si>
-  <si>
-    <t>to12_sub2007</t>
-  </si>
-  <si>
-    <t>to12_sub2035</t>
-  </si>
-  <si>
-    <t>to13_sub2000</t>
-  </si>
-  <si>
-    <t>to13_sub2058</t>
-  </si>
-  <si>
-    <t>to14_sub2030</t>
-  </si>
-  <si>
-    <t>to14_sub2032</t>
-  </si>
-  <si>
-    <t>to15_sub2018</t>
-  </si>
-  <si>
-    <t>to15_sub2049</t>
-  </si>
-  <si>
-    <t>to16_sub2006</t>
-  </si>
-  <si>
-    <t>to16_sub2044</t>
-  </si>
-  <si>
-    <t>to18_sub2025</t>
-  </si>
-  <si>
-    <t>to18_sub2041</t>
-  </si>
-  <si>
-    <t>to19_sub2011</t>
-  </si>
-  <si>
-    <t>to19_sub2038</t>
-  </si>
-  <si>
-    <t>to19_sub2047</t>
-  </si>
-  <si>
-    <t>to20_sub2046</t>
-  </si>
-  <si>
-    <t>to20_sub2051</t>
-  </si>
-  <si>
-    <t>to21_sub2009</t>
-  </si>
-  <si>
-    <t>to21_sub2053</t>
-  </si>
-  <si>
-    <t>to22_sub2020</t>
-  </si>
-  <si>
-    <t>to22_sub2029</t>
-  </si>
-  <si>
-    <t>to23_sub2034</t>
-  </si>
-  <si>
-    <t>to23_sub2043</t>
-  </si>
-  <si>
-    <t>to26_sub2048</t>
-  </si>
-  <si>
-    <t>to26_sub2056</t>
-  </si>
-  <si>
-    <t>to27_sub2021</t>
-  </si>
-  <si>
-    <t>to27_sub2031</t>
-  </si>
-  <si>
-    <t>to28_sub2019</t>
-  </si>
-  <si>
-    <t>to28_sub2042</t>
-  </si>
-  <si>
-    <t>to3_sub3001</t>
-  </si>
-  <si>
-    <t>to26_sub3002</t>
-  </si>
-  <si>
-    <t>to28_sub3003</t>
-  </si>
-  <si>
-    <t>to12_sub3004</t>
-  </si>
-  <si>
-    <t>to6_sub3005</t>
-  </si>
-  <si>
-    <t>to27_sub3006</t>
-  </si>
-  <si>
-    <t>to27_sub3007</t>
-  </si>
-  <si>
-    <t>to14_sub3008</t>
-  </si>
-  <si>
-    <t>to27_sub3009</t>
-  </si>
-  <si>
-    <t>to23_sub3010</t>
-  </si>
-  <si>
-    <t>to5_sub3011</t>
-  </si>
-  <si>
-    <t>to21_sub3012</t>
-  </si>
-  <si>
-    <t>to6_sub3013</t>
-  </si>
-  <si>
-    <t>to27_sub3014</t>
-  </si>
-  <si>
-    <t>to5_sub3015</t>
-  </si>
-  <si>
-    <t>to20_sub3016</t>
-  </si>
-  <si>
-    <t>to22_sub3017</t>
-  </si>
-  <si>
-    <t>to14_sub3018</t>
-  </si>
-  <si>
-    <t>to18_sub3019</t>
-  </si>
-  <si>
-    <t>to27_sub3020</t>
-  </si>
-  <si>
-    <t>to18_sub3021</t>
-  </si>
-  <si>
-    <t>to15_sub3022</t>
-  </si>
-  <si>
-    <t>to22_sub3023</t>
-  </si>
-  <si>
-    <t>to23_sub3024</t>
-  </si>
-  <si>
-    <t>to8_sub3025</t>
-  </si>
-  <si>
-    <t>to16_sub3026</t>
-  </si>
-  <si>
-    <t>to2_sub3027</t>
-  </si>
-  <si>
-    <t>to3_sub3028</t>
-  </si>
-  <si>
-    <t>to11_sub3029</t>
-  </si>
-  <si>
-    <t>to20_sub3030</t>
-  </si>
-  <si>
-    <t>to16_sub3031</t>
-  </si>
-  <si>
-    <t>to28_sub3032</t>
-  </si>
-  <si>
-    <t>to4_sub3033</t>
-  </si>
-  <si>
-    <t>to12_sub3034</t>
-  </si>
-  <si>
-    <t>to8_sub3035</t>
-  </si>
-  <si>
-    <t>to21_sub3036</t>
-  </si>
-  <si>
-    <t>to11_sub3037</t>
-  </si>
-  <si>
-    <t>to13_sub3038</t>
-  </si>
-  <si>
-    <t>to19_sub3039</t>
-  </si>
-  <si>
-    <t>to15_sub3040</t>
-  </si>
-  <si>
-    <t>to7_sub3041</t>
-  </si>
-  <si>
-    <t>to2_sub3042</t>
-  </si>
-  <si>
-    <t>to19_sub3043</t>
-  </si>
-  <si>
-    <t>to3_sub3044</t>
-  </si>
-  <si>
-    <t>to7_sub3045</t>
-  </si>
-  <si>
-    <t>to13_sub3046</t>
-  </si>
-  <si>
-    <t>to26_sub3047</t>
-  </si>
-  <si>
-    <t>to14_sub3048</t>
-  </si>
-  <si>
-    <t>to4_sub3049</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0,1,0</t>
-  </si>
-  <si>
-    <t>2,7,9,11,13,17,19,21</t>
-  </si>
-  <si>
-    <t>0,0,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,7,9,11,15,18</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,1,0,0,0,0,1,1,0</t>
-  </si>
-  <si>
-    <t>2,7,9,12,14,16,20,22,24,26</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,7,9,12,14,18,20,22</t>
-  </si>
-  <si>
-    <t>1,0,1,1,0,0,1,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,1,0,1,0,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,13,16,18,20,23,27,29,32,34,38,40,42</t>
-  </si>
-  <si>
-    <t>1,1,0,1,0,1,0,0,1,1,0,0,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,0,0,0,0,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>2,6,10,12,14,17,19,22,26,28,30,33,35,39,42</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,1,1,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,0,0,1,0,0,0,0,0,0,0,0,1,0</t>
-  </si>
-  <si>
-    <t>2,4,6,8,10,13,16,19,22,24,26,28,30,33,35,39,41,44</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,0,0,0,0,1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,0,0,0,0,0,1,0,1,0,1,0</t>
-  </si>
-  <si>
-    <t>2,6,10,13,15,17,20,22,24,27,29,31,35,38</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,1,0,0,1,1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1,0,1,0,0,0,0,1,0,1,0</t>
-  </si>
-  <si>
-    <t>0,1,1,1,0,0,1,1,1,1,0,1,1,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0,1,0,1,0,0,0,1,0,0</t>
-  </si>
-  <si>
-    <t>2,4,8,11,14,17,21,23,26,28,32,34,36,38</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,0,0,0,0,0,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,1,0,0,0,1,0,0,0,0,1,1,0,0</t>
-  </si>
-  <si>
-    <t>2,6,8,11,14,17,19,21,25,29,31,33,35,38,40,44,46,48</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,1,0,1,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,0,0,0,0,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,12,14,16,19,22,24,31,38,42,44,47</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>2,7,9,11,13,15,19,21,23</t>
-  </si>
-  <si>
-    <t>0,1,1,1,0,0,1,1,1,0,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0,0,1,1,0,1,0,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,1,0,1,1,0,0,1,1,1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,4,8,10,12,15,17,19,22,24,26,28,30,33,35,37,41,44</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0,1,0,1,0,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,4,6,8,12,14,16,18,20,23,26,28,30,32</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1,1,0,1,0,1,0,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,0,0,1,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,1,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>2,7,9,12,14,18,21</t>
-  </si>
-  <si>
-    <t>0,1,0,0,0,1,1,0,0,0,1,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,1,1,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>2,4,8,10,12,14,16,18,28,30,33,35,37</t>
-  </si>
-  <si>
-    <t>1,1,0,0,0,1,1,1,1,0,0,1,0,1,0,0,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,1,1,1,0,0,0,0,0,0,1,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,1,0,0,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,0,1,1,0</t>
-  </si>
-  <si>
-    <t>0,1,0,0,1,1,1,0,1,1,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,1,0,1,1,1,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,8,10,13,16,19,22,26,28,30,32,35,37,41,43,45</t>
-  </si>
-  <si>
-    <t>0,1,0,1,0,1,0,0,1,1,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,0,1,0,0,0,0,0,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,12,16,18,20,23,26,28,30,34,36,39,41,45,47,50</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1,1,1,0,0,0,0,0,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,1,1,1,1,0,0,1,0,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,1,1,0,0,0,0,0,0,0,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,1,1,0,0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1,0,1,0,1,1,0,1,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,0,1,0,1,0,0,1,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,0,1,1,0,1,0,0,1,0,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,1,1,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,1,0,1,0,1,0,0,1,1,1,0,1,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0,0,1,0,1,1,1,1,1,0,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,1,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,13,16,18,20,24,26,28,30,32,36,38,40,42,45,47,51,53,55</t>
-  </si>
-  <si>
-    <t>0,1,0,0,1,1,0,0,0,1,0,0,1,0,1,1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0,0,1,0,0,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,1,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,8,10,14,16,19,22,24,26,30,32,34,37,39,43,45,47</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,1,0,1,0,1,0,1,0,0</t>
-  </si>
-  <si>
-    <t>0,0,0,0,1,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>2,6,10,12,14,16,19,22,24,31,38,40,44,46,49</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1,0,1,0,1,1,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>0,1,1,0,1,0,0,1</t>
-  </si>
-  <si>
-    <t>1,0,0,0,0,1,0,0</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,0,1,0,0,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,0,1,1,0,0,0,0,0,0,1,1,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,1,0,1,1,0,0,1,0,0,0,0,0,1,1,0,1,1</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>1,0,0,1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,0,1,0,1,1,0,0,0</t>
-  </si>
-  <si>
-    <t>1,1,0,0,1,1,0,1,0,1,1,1,1,0</t>
-  </si>
-  <si>
-    <t>0,0,1,1,1,0,0,0,1,0,1,1,0,1,1,0,0,1</t>
-  </si>
-  <si>
-    <t>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -814,11 +804,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A7EB6-860A-1144-8B39-C1E000CAA824}">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1145,21 +1132,21 @@
     <col min="2" max="2" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1168,31 +1155,28 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>241</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B2" t="str">
         <f t="shared" ref="B2:B33" si="0">RIGHT(A2,4)</f>
         <v>1001</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0.45833333333333331</v>
@@ -1207,31 +1191,28 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="H2">
-        <v>8.3000000000000004E-2</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I2">
-        <v>0.30499999999999999</v>
+        <v>0.371</v>
       </c>
       <c r="J2">
-        <v>0.371</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>0.72</v>
@@ -1246,31 +1227,28 @@
         <v>-0.28199999999999997</v>
       </c>
       <c r="H3">
-        <v>-7.4999999999999997E-2</v>
+        <v>0.36</v>
       </c>
       <c r="I3">
-        <v>0.36</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="J3">
-        <v>-5.3999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
         <v>1003</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>0.84</v>
@@ -1285,31 +1263,28 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H4">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>0.309</v>
       </c>
       <c r="J4">
-        <v>0.309</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5">
         <v>0.50943396226415094</v>
@@ -1324,31 +1299,28 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="H5">
-        <v>0.111</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="I5">
-        <v>0.59499999999999997</v>
+        <v>0.621</v>
       </c>
       <c r="J5">
-        <v>0.621</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6">
         <v>0.42307692307692307</v>
@@ -1363,31 +1335,28 @@
         <v>0.09</v>
       </c>
       <c r="H6">
-        <v>-0.191</v>
+        <v>-0.20899999999999999</v>
       </c>
       <c r="I6">
-        <v>-0.20899999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="J6">
-        <v>0.44700000000000001</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>0.53333333333333333</v>
@@ -1402,31 +1371,28 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="H7">
-        <v>0.23100000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="I7">
-        <v>0.27100000000000002</v>
+        <v>0.307</v>
       </c>
       <c r="J7">
-        <v>0.307</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0.81481481481481477</v>
@@ -1441,31 +1407,28 @@
         <v>0.221</v>
       </c>
       <c r="H8">
-        <v>0.13100000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="I8">
-        <v>-0.09</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="J8">
-        <v>0.19500000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>0.54545454545454541</v>
@@ -1480,31 +1443,28 @@
         <v>0.311</v>
       </c>
       <c r="H9">
-        <v>0.29399999999999998</v>
+        <v>0.183</v>
       </c>
       <c r="I9">
-        <v>0.183</v>
+        <v>0.39300000000000002</v>
       </c>
       <c r="J9">
-        <v>0.39300000000000002</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D10">
         <v>0.39215686274509798</v>
@@ -1519,31 +1479,28 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="H10">
-        <v>0.35399999999999998</v>
+        <v>0.376</v>
       </c>
       <c r="I10">
-        <v>0.376</v>
+        <v>0.371</v>
       </c>
       <c r="J10">
-        <v>0.371</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D11">
         <v>0.4</v>
@@ -1558,31 +1515,28 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="H11">
-        <v>0.09</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="I11">
-        <v>0.58499999999999996</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J11">
-        <v>0.13200000000000001</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>0.56521739130434778</v>
@@ -1597,31 +1551,28 @@
         <v>0.115</v>
       </c>
       <c r="H12">
-        <v>0.32400000000000001</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="I12">
-        <v>0.24299999999999999</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="J12">
-        <v>6.4000000000000001E-2</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>4</v>
-      </c>
-      <c r="L12">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>0.47619047619047622</v>
@@ -1636,31 +1587,28 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H13">
-        <v>0.27800000000000002</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I13">
-        <v>8.3000000000000004E-2</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="J13">
-        <v>0.57899999999999996</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>1015</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>0.59523809523809523</v>
@@ -1675,31 +1623,28 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H14">
-        <v>0.29899999999999999</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="I14">
-        <v>-6.0000000000000001E-3</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="J14">
-        <v>-8.2000000000000003E-2</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>1017</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>0.57692307692307687</v>
@@ -1714,31 +1659,28 @@
         <v>-0.26400000000000001</v>
       </c>
       <c r="H15">
-        <v>0.30499999999999999</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="I15">
-        <v>-0.17100000000000001</v>
+        <v>-0.28899999999999998</v>
       </c>
       <c r="J15">
-        <v>-0.28899999999999998</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>1018</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D16">
         <v>0.6875</v>
@@ -1753,31 +1695,28 @@
         <v>0.222</v>
       </c>
       <c r="H16">
-        <v>0.29899999999999999</v>
+        <v>0.182</v>
       </c>
       <c r="I16">
-        <v>0.182</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="J16">
-        <v>0.63100000000000001</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
         <v>4.0816326530612242E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>1019</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <v>0.63043478260869568</v>
@@ -1792,31 +1731,28 @@
         <v>0.219</v>
       </c>
       <c r="H17">
-        <v>0.17899999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="I17">
-        <v>0.32800000000000001</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="J17">
-        <v>8.7999999999999995E-2</v>
+        <v>2</v>
       </c>
       <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18">
         <v>0.3</v>
@@ -1831,31 +1767,28 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H18">
-        <v>0.192</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="I18">
-        <v>0.59799999999999998</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="J18">
-        <v>-5.6000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>1021</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>0.30508474576271188</v>
@@ -1870,31 +1803,28 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="H19">
-        <v>0.247</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="I19">
-        <v>0.56499999999999995</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="J19">
-        <v>9.5000000000000001E-2</v>
+        <v>3</v>
       </c>
       <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>1022</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>0.66666666666666663</v>
@@ -1909,31 +1839,28 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="H20">
-        <v>0.30199999999999999</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I20">
-        <v>0.20799999999999999</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="J20">
-        <v>0.38100000000000001</v>
+        <v>5</v>
       </c>
       <c r="K20">
-        <v>5</v>
-      </c>
-      <c r="L20">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>1025</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>0.68</v>
@@ -1948,31 +1875,28 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="H21">
-        <v>0.17599999999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="I21">
-        <v>7.3999999999999996E-2</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="J21">
-        <v>0.20899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>1026</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>0.53061224489795922</v>
@@ -1987,31 +1911,28 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="H22">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="I22">
-        <v>0.19</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="J22">
-        <v>0.26800000000000002</v>
+        <v>3</v>
       </c>
       <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>1027</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <v>0.29411764705882348</v>
@@ -2026,31 +1947,28 @@
         <v>0.252</v>
       </c>
       <c r="H23">
-        <v>0.33100000000000002</v>
+        <v>0.23899999999999999</v>
       </c>
       <c r="I23">
-        <v>0.23899999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="J23">
-        <v>0.52100000000000002</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>0.48571428571428571</v>
@@ -2065,31 +1983,28 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="H24">
-        <v>0.09</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="I24">
-        <v>0.34399999999999997</v>
+        <v>0.373</v>
       </c>
       <c r="J24">
-        <v>0.373</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>2001</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>0.6</v>
@@ -2104,31 +2019,28 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="H25">
-        <v>0.32</v>
+        <v>0.312</v>
       </c>
       <c r="I25">
-        <v>0.312</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="J25">
-        <v>0.41099999999999998</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
         <v>4.7619047619047623E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0.54545454545454541</v>
@@ -2143,31 +2055,28 @@
         <v>0.184</v>
       </c>
       <c r="H26">
-        <v>0.29399999999999998</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="I26">
-        <v>0.58099999999999996</v>
+        <v>0.311</v>
       </c>
       <c r="J26">
-        <v>0.311</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>2003</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>0.59090909090909094</v>
@@ -2182,31 +2091,28 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="H27">
-        <v>0.29399999999999998</v>
+        <v>0.59899999999999998</v>
       </c>
       <c r="I27">
-        <v>0.59899999999999998</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="J27">
-        <v>0.20699999999999999</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>0.62962962962962965</v>
@@ -2221,31 +2127,28 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.13100000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="I28">
-        <v>0.19900000000000001</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="J28">
-        <v>4.2000000000000003E-2</v>
+        <v>2</v>
       </c>
       <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>2006</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>0.38095238095238088</v>
@@ -2260,31 +2163,28 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H29">
-        <v>0.29899999999999999</v>
+        <v>0.221</v>
       </c>
       <c r="I29">
-        <v>0.221</v>
+        <v>0.24</v>
       </c>
       <c r="J29">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>2007</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>0.23529411764705879</v>
@@ -2299,31 +2199,28 @@
         <v>0.313</v>
       </c>
       <c r="H30">
-        <v>0.35399999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I30">
-        <v>0.33400000000000002</v>
+        <v>0.17199999999999999</v>
       </c>
       <c r="J30">
-        <v>0.17199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>0.20754716981132079</v>
@@ -2338,31 +2235,28 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>0.111</v>
+        <v>2E-3</v>
       </c>
       <c r="I31">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J31">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>0.55000000000000004</v>
@@ -2377,31 +2271,28 @@
         <v>0.47599999999999998</v>
       </c>
       <c r="H32">
-        <v>0.192</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="I32">
-        <v>0.40100000000000002</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="J32">
-        <v>0.30199999999999999</v>
+        <v>4</v>
       </c>
       <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>0.33333333333333331</v>
@@ -2416,31 +2307,28 @@
         <v>0.12</v>
       </c>
       <c r="H33">
-        <v>0.29899999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="I33">
-        <v>0.23799999999999999</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="J33">
-        <v>0.14699999999999999</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B65" si="1">RIGHT(A34,4)</f>
         <v>2012</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34">
         <v>0.66666666666666663</v>
@@ -2455,31 +2343,28 @@
         <v>0.497</v>
       </c>
       <c r="H34">
-        <v>0.23100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="I34">
-        <v>0.32</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="J34">
-        <v>0.46100000000000002</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>2016</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>0.5</v>
@@ -2494,31 +2379,28 @@
         <v>-0.316</v>
       </c>
       <c r="H35">
-        <v>-0.191</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I35">
-        <v>0.55000000000000004</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="J35">
-        <v>8.8999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>2018</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36">
         <v>0.5</v>
@@ -2533,31 +2415,28 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H36">
-        <v>0.27800000000000002</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="I36">
-        <v>0.33400000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="J36">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>2019</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>0.50980392156862742</v>
@@ -2572,31 +2451,28 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="H37">
-        <v>0.33100000000000002</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="I37">
-        <v>0.40200000000000002</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="J37">
-        <v>0.36499999999999999</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>2020</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38">
         <v>0.47457627118644069</v>
@@ -2611,31 +2487,28 @@
         <v>0.25</v>
       </c>
       <c r="H38">
-        <v>0.247</v>
+        <v>0.374</v>
       </c>
       <c r="I38">
-        <v>0.374</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="J38">
-        <v>0.25600000000000001</v>
+        <v>3</v>
       </c>
       <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>2021</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39">
         <v>0.46938775510204078</v>
@@ -2650,31 +2523,28 @@
         <v>0.126</v>
       </c>
       <c r="H39">
-        <v>0.192</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="I39">
-        <v>0.28199999999999997</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="J39">
-        <v>0.54900000000000004</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D40">
         <v>0.3125</v>
@@ -2689,31 +2559,28 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H40">
-        <v>8.3000000000000004E-2</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="I40">
-        <v>0.46100000000000002</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="J40">
-        <v>0.53100000000000003</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>2024</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D41">
         <v>0.69230769230769229</v>
@@ -2728,31 +2595,28 @@
         <v>-0.184</v>
       </c>
       <c r="H41">
-        <v>-0.191</v>
+        <v>0.44600000000000001</v>
       </c>
       <c r="I41">
-        <v>0.44600000000000001</v>
+        <v>0.126</v>
       </c>
       <c r="J41">
-        <v>0.126</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>2025</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D42">
         <v>0.34615384615384609</v>
@@ -2767,31 +2631,28 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="H42">
-        <v>0.30499999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="I42">
-        <v>0.154</v>
+        <v>-0.21</v>
       </c>
       <c r="J42">
-        <v>-0.21</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="L42">
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
         <v>2026</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>0.6</v>
@@ -2806,31 +2667,28 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H43">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.129</v>
       </c>
       <c r="I43">
-        <v>-0.129</v>
+        <v>0.436</v>
       </c>
       <c r="J43">
-        <v>0.436</v>
+        <v>1</v>
       </c>
       <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D44">
         <v>0.40677966101694918</v>
@@ -2845,31 +2703,28 @@
         <v>0.156</v>
       </c>
       <c r="H44">
-        <v>0.247</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="I44">
-        <v>0.50700000000000001</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="J44">
-        <v>7.2999999999999995E-2</v>
+        <v>6</v>
       </c>
       <c r="K44">
-        <v>6</v>
-      </c>
-      <c r="L44">
         <v>0.13043478260869559</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>2030</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D45">
         <v>0.45652173913043481</v>
@@ -2884,31 +2739,28 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="H45">
-        <v>0.32400000000000001</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="I45">
-        <v>0.27100000000000002</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="J45">
-        <v>0.39400000000000002</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>2031</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D46">
         <v>0.38775510204081631</v>
@@ -2923,31 +2775,28 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H46">
-        <v>0.192</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I46">
-        <v>0.20499999999999999</v>
+        <v>0.311</v>
       </c>
       <c r="J46">
-        <v>0.311</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="1"/>
         <v>2032</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47">
         <v>0.52173913043478259</v>
@@ -2962,31 +2811,28 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>0.32400000000000001</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="I47">
-        <v>0.19900000000000001</v>
+        <v>-0.159</v>
       </c>
       <c r="J47">
-        <v>-0.159</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>2</v>
-      </c>
-      <c r="L47">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="1"/>
         <v>2033</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D48">
         <v>0.56000000000000005</v>
@@ -3001,31 +2847,28 @@
         <v>0.127</v>
       </c>
       <c r="H48">
-        <v>-7.4999999999999997E-2</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="I48">
-        <v>0.38200000000000001</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="J48">
-        <v>0.18099999999999999</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>0</v>
       </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="1"/>
         <v>2034</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D49">
         <v>0.40740740740740738</v>
@@ -3040,31 +2883,28 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="H49">
-        <v>0.30199999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="I49">
-        <v>0.193</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="J49">
-        <v>0.39100000000000001</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="1"/>
         <v>2035</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D50">
         <v>0.1764705882352941</v>
@@ -3079,31 +2919,28 @@
         <v>0.216</v>
       </c>
       <c r="H50">
-        <v>0.35399999999999998</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="I50">
-        <v>0.51400000000000001</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="J50">
-        <v>0.61699999999999999</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>0</v>
       </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="1"/>
         <v>2037</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D51">
         <v>0.4</v>
@@ -3118,31 +2955,28 @@
         <v>-0.129</v>
       </c>
       <c r="H51">
-        <v>-7.4999999999999997E-2</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="I51">
-        <v>0.31900000000000001</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="J51">
-        <v>0.47099999999999997</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>0</v>
       </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="1"/>
         <v>2038</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52">
         <v>0.58333333333333337</v>
@@ -3157,31 +2991,28 @@
         <v>0.114</v>
       </c>
       <c r="H52">
-        <v>0.29899999999999999</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I52">
-        <v>0.54500000000000004</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="J52">
-        <v>-0.14000000000000001</v>
+        <v>7</v>
       </c>
       <c r="K52">
-        <v>7</v>
-      </c>
-      <c r="L52">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="1"/>
         <v>2039</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <v>0.62962962962962965</v>
@@ -3196,31 +3027,28 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="H53">
-        <v>0.13100000000000001</v>
+        <v>-5.5E-2</v>
       </c>
       <c r="I53">
-        <v>-5.5E-2</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="J53">
-        <v>-3.6999999999999998E-2</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D54">
         <v>0.33333333333333331</v>
@@ -3235,31 +3063,28 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="H54">
-        <v>8.3000000000000004E-2</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="I54">
-        <v>0.45900000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="J54">
-        <v>0.52100000000000002</v>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>0</v>
       </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="1"/>
         <v>2041</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55">
         <v>0.61538461538461542</v>
@@ -3274,31 +3099,28 @@
         <v>-0.188</v>
       </c>
       <c r="H55">
-        <v>0.30499999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="I55">
-        <v>0.16500000000000001</v>
+        <v>-0.254</v>
       </c>
       <c r="J55">
-        <v>-0.254</v>
+        <v>7</v>
       </c>
       <c r="K55">
-        <v>7</v>
-      </c>
-      <c r="L55">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="1"/>
         <v>2042</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56">
         <v>0.78431372549019607</v>
@@ -3313,31 +3135,28 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="H56">
-        <v>0.33100000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="I56">
-        <v>0.28799999999999998</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="J56">
-        <v>0.38500000000000001</v>
+        <v>4</v>
       </c>
       <c r="K56">
-        <v>4</v>
-      </c>
-      <c r="L56">
         <v>7.8431372549019607E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="1"/>
         <v>2043</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D57">
         <v>0.25925925925925919</v>
@@ -3352,31 +3171,28 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="H57">
-        <v>0.30199999999999999</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="I57">
-        <v>0.38600000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J57">
-        <v>8.3000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="1"/>
         <v>2044</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D58">
         <v>0.40476190476190482</v>
@@ -3391,31 +3207,28 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="H58">
-        <v>0.29899999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="I58">
-        <v>0.35199999999999998</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J58">
-        <v>0.13100000000000001</v>
+        <v>0</v>
       </c>
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="1"/>
         <v>2046</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D59">
         <v>0.43478260869565222</v>
@@ -3430,31 +3243,28 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H59">
-        <v>0.17899999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="I59">
-        <v>0.50800000000000001</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="J59">
-        <v>-1.0999999999999999E-2</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>3</v>
-      </c>
-      <c r="L59">
         <v>6.8181818181818177E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="1"/>
         <v>2047</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D60">
         <v>0.79166666666666663</v>
@@ -3469,31 +3279,28 @@
         <v>-0.22800000000000001</v>
       </c>
       <c r="H60">
-        <v>0.29899999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="I60">
-        <v>0.245</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J60">
-        <v>2.5000000000000001E-2</v>
+        <v>11</v>
       </c>
       <c r="K60">
-        <v>11</v>
-      </c>
-      <c r="L60">
         <v>0.14473684210526319</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D61">
         <v>0.76</v>
@@ -3508,31 +3315,28 @@
         <v>0.3</v>
       </c>
       <c r="H61">
-        <v>0.17599999999999999</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="I61">
-        <v>0.26800000000000002</v>
+        <v>0.191</v>
       </c>
       <c r="J61">
-        <v>0.191</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="1"/>
         <v>2049</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D62">
         <v>0.5</v>
@@ -3547,31 +3351,28 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.27800000000000002</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="I62">
-        <v>0.17599999999999999</v>
+        <v>0</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="L62">
         <v>0.1153846153846154</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="1"/>
         <v>2051</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D63">
         <v>0.60869565217391308</v>
@@ -3586,31 +3387,28 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="H63">
-        <v>0.17899999999999999</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="I63">
-        <v>0.45200000000000001</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="J63">
-        <v>0.22900000000000001</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>5</v>
-      </c>
-      <c r="L63">
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="1"/>
         <v>2052</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D64">
         <v>0.44</v>
@@ -3625,31 +3423,28 @@
         <v>0.215</v>
       </c>
       <c r="H64">
-        <v>0.32</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="I64">
-        <v>0.33800000000000002</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="J64">
-        <v>0.66200000000000003</v>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="1"/>
         <v>2053</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <v>0.65</v>
@@ -3664,31 +3459,28 @@
         <v>0.215</v>
       </c>
       <c r="H65">
-        <v>0.192</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="I65">
-        <v>0.51800000000000002</v>
+        <v>0.48199999999999998</v>
       </c>
       <c r="J65">
-        <v>0.48199999999999998</v>
+        <v>4</v>
       </c>
       <c r="K65">
-        <v>4</v>
-      </c>
-      <c r="L65">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" ref="B66:B97" si="2">RIGHT(A66,4)</f>
         <v>2056</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D66">
         <v>0.8</v>
@@ -3703,31 +3495,28 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="H66">
-        <v>0.17599999999999999</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="I66">
-        <v>0.48699999999999999</v>
+        <v>0.123</v>
       </c>
       <c r="J66">
-        <v>0.123</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
         <v>2057</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D67">
         <v>0.56666666666666665</v>
@@ -3742,31 +3531,28 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="H67">
-        <v>0.23100000000000001</v>
+        <v>0.40899999999999997</v>
       </c>
       <c r="I67">
-        <v>0.40899999999999997</v>
+        <v>0.495</v>
       </c>
       <c r="J67">
-        <v>0.495</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B68" t="str">
         <f t="shared" si="2"/>
         <v>2058</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D68">
         <v>0.54285714285714282</v>
@@ -3781,31 +3567,28 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="H68">
-        <v>0.09</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="I68">
-        <v>0.60599999999999998</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="J68">
-        <v>0.40300000000000002</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="L68">
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B69" t="str">
         <f t="shared" si="2"/>
         <v>3001</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D69">
         <v>0.64</v>
@@ -3820,31 +3603,28 @@
         <v>-0.26400000000000001</v>
       </c>
       <c r="H69">
-        <v>-7.4999999999999997E-2</v>
+        <v>-0.128</v>
       </c>
       <c r="I69">
-        <v>-0.128</v>
+        <v>-0.125</v>
       </c>
       <c r="J69">
-        <v>-0.125</v>
+        <v>4</v>
       </c>
       <c r="K69">
-        <v>4</v>
-      </c>
-      <c r="L69">
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="2"/>
         <v>3002</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D70">
         <v>0.76</v>
@@ -3859,31 +3639,28 @@
         <v>0.432</v>
       </c>
       <c r="H70">
-        <v>0.17599999999999999</v>
+        <v>0.59599999999999997</v>
       </c>
       <c r="I70">
-        <v>0.59599999999999997</v>
+        <v>0.379</v>
       </c>
       <c r="J70">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>0</v>
       </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="2"/>
         <v>3003</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D71">
         <v>0.29411764705882348</v>
@@ -3898,31 +3675,28 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H71">
-        <v>0.33100000000000002</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="I71">
-        <v>0.42399999999999999</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="J71">
-        <v>0.51800000000000002</v>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>0</v>
       </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="2"/>
         <v>3004</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D72">
         <v>0.25490196078431371</v>
@@ -3937,31 +3711,28 @@
         <v>0.108</v>
       </c>
       <c r="H72">
-        <v>0.35399999999999998</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="I72">
-        <v>0.48699999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="J72">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72">
         <v>0.04</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="2"/>
         <v>3005</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D73">
         <v>0.88461538461538458</v>
@@ -3976,31 +3747,28 @@
         <v>0.127</v>
       </c>
       <c r="H73">
-        <v>-0.191</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="I73">
-        <v>0.29099999999999998</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="J73">
-        <v>0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="2"/>
         <v>3006</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>0.48979591836734693</v>
@@ -4015,31 +3783,28 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="H74">
-        <v>0.192</v>
+        <v>0.39700000000000002</v>
       </c>
       <c r="I74">
-        <v>0.39700000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="J74">
-        <v>0.46200000000000002</v>
+        <v>6</v>
       </c>
       <c r="K74">
-        <v>6</v>
-      </c>
-      <c r="L74">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="2"/>
         <v>3007</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>0.2857142857142857</v>
@@ -4054,31 +3819,28 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H75">
-        <v>0.192</v>
+        <v>0.26</v>
       </c>
       <c r="I75">
-        <v>0.26</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="J75">
-        <v>0.22500000000000001</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>2</v>
-      </c>
-      <c r="L75">
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="2"/>
         <v>3008</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>0.5</v>
@@ -4093,31 +3855,28 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="H76">
-        <v>0.32400000000000001</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="I76">
-        <v>0.35099999999999998</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="J76">
-        <v>0.13100000000000001</v>
+        <v>3</v>
       </c>
       <c r="K76">
-        <v>3</v>
-      </c>
-      <c r="L76">
         <v>5.7692307692307702E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="2"/>
         <v>3009</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77">
         <v>0.83673469387755106</v>
@@ -4132,31 +3891,28 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H77">
-        <v>0.192</v>
+        <v>0.129</v>
       </c>
       <c r="I77">
-        <v>0.129</v>
+        <v>0.127</v>
       </c>
       <c r="J77">
-        <v>0.127</v>
+        <v>7</v>
       </c>
       <c r="K77">
-        <v>7</v>
-      </c>
-      <c r="L77">
         <v>0.1521739130434783</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="2"/>
         <v>3010</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <v>0.2407407407407407</v>
@@ -4171,31 +3927,28 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="H78">
-        <v>0.30199999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="I78">
-        <v>0.50800000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="J78">
-        <v>0.125</v>
+        <v>5</v>
       </c>
       <c r="K78">
-        <v>5</v>
-      </c>
-      <c r="L78">
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="2"/>
         <v>3011</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>0.56603773584905659</v>
@@ -4210,31 +3963,28 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="H79">
-        <v>0.111</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I79">
-        <v>0.41499999999999998</v>
+        <v>0.371</v>
       </c>
       <c r="J79">
-        <v>0.371</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>2</v>
-      </c>
-      <c r="L79">
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="2"/>
         <v>3012</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D80">
         <v>0.52500000000000002</v>
@@ -4249,31 +3999,28 @@
         <v>0.109</v>
       </c>
       <c r="H80">
-        <v>0.192</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="I80">
-        <v>0.45500000000000002</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="J80">
-        <v>4.8000000000000001E-2</v>
+        <v>3</v>
       </c>
       <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80">
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="2"/>
         <v>3013</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D81">
         <v>0.65384615384615385</v>
@@ -4288,31 +4035,28 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H81">
-        <v>-0.191</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="I81">
-        <v>2.5999999999999999E-2</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="J81">
-        <v>0.10299999999999999</v>
+        <v>1</v>
       </c>
       <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="2"/>
         <v>3014</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D82">
         <v>0.67346938775510201</v>
@@ -4327,31 +4071,28 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H82">
-        <v>0.192</v>
+        <v>0.115</v>
       </c>
       <c r="I82">
-        <v>0.115</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J82">
-        <v>0.20399999999999999</v>
+        <v>5</v>
       </c>
       <c r="K82">
-        <v>5</v>
-      </c>
-      <c r="L82">
         <v>0.125</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="2"/>
         <v>3015</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D83">
         <v>0.41509433962264147</v>
@@ -4366,31 +4107,28 @@
         <v>0.11</v>
       </c>
       <c r="H83">
-        <v>0.111</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="I83">
-        <v>0.38100000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="J83">
-        <v>0.312</v>
+        <v>1</v>
       </c>
       <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="2"/>
         <v>3016</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D84">
         <v>0.45652173913043481</v>
@@ -4405,31 +4143,28 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H84">
-        <v>0.17899999999999999</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="I84">
-        <v>0.48699999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="J84">
-        <v>0.16800000000000001</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>2</v>
-      </c>
-      <c r="L84">
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="2"/>
         <v>3017</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D85">
         <v>0.32203389830508472</v>
@@ -4444,31 +4179,28 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H85">
-        <v>0.247</v>
+        <v>0.27100000000000002</v>
       </c>
       <c r="I85">
-        <v>0.27100000000000002</v>
+        <v>0.127</v>
       </c>
       <c r="J85">
-        <v>0.127</v>
+        <v>2</v>
       </c>
       <c r="K85">
-        <v>2</v>
-      </c>
-      <c r="L85">
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="2"/>
         <v>3018</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D86">
         <v>0.52173913043478259</v>
@@ -4483,31 +4215,28 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H86">
-        <v>0.32400000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="I86">
-        <v>0.46100000000000002</v>
+        <v>0.19</v>
       </c>
       <c r="J86">
-        <v>0.19</v>
+        <v>4</v>
       </c>
       <c r="K86">
-        <v>4</v>
-      </c>
-      <c r="L86">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="2"/>
         <v>3019</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D87">
         <v>0.25</v>
@@ -4522,31 +4251,28 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H87">
-        <v>0.30499999999999999</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="I87">
-        <v>0.32500000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="J87">
-        <v>0.113</v>
+        <v>2</v>
       </c>
       <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="2"/>
         <v>3020</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D88">
         <v>0.5714285714285714</v>
@@ -4561,31 +4287,28 @@
         <v>0.18</v>
       </c>
       <c r="H88">
-        <v>0.192</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="I88">
-        <v>0.23599999999999999</v>
+        <v>0.193</v>
       </c>
       <c r="J88">
-        <v>0.193</v>
+        <v>7</v>
       </c>
       <c r="K88">
-        <v>7</v>
-      </c>
-      <c r="L88">
         <v>0.1372549019607843</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="2"/>
         <v>3021</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D89">
         <v>0.42307692307692307</v>
@@ -4600,31 +4323,28 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="H89">
-        <v>0.30499999999999999</v>
+        <v>0.28899999999999998</v>
       </c>
       <c r="I89">
-        <v>0.28899999999999998</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="J89">
-        <v>0.28699999999999998</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="2"/>
         <v>3022</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <v>0.26190476190476192</v>
@@ -4639,31 +4359,28 @@
         <v>-0.193</v>
       </c>
       <c r="H90">
-        <v>0.27800000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="I90">
-        <v>0.44</v>
+        <v>-0.13300000000000001</v>
       </c>
       <c r="J90">
-        <v>-0.13300000000000001</v>
+        <v>2</v>
       </c>
       <c r="K90">
-        <v>2</v>
-      </c>
-      <c r="L90">
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B91" t="str">
         <f t="shared" si="2"/>
         <v>3023</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D91">
         <v>0.3559322033898305</v>
@@ -4678,31 +4395,28 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="H91">
-        <v>0.247</v>
+        <v>0.504</v>
       </c>
       <c r="I91">
-        <v>0.504</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J91">
-        <v>9.6000000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="K91">
-        <v>5</v>
-      </c>
-      <c r="L91">
         <v>0.13157894736842099</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B92" t="str">
         <f t="shared" si="2"/>
         <v>3024</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D92">
         <v>0.55555555555555558</v>
@@ -4717,31 +4431,28 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H92">
-        <v>0.30199999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="I92">
-        <v>0.18099999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="J92">
-        <v>6.5000000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="K92">
-        <v>5</v>
-      </c>
-      <c r="L92">
         <v>0.1136363636363636</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="2"/>
         <v>3025</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D93">
         <v>0.59259259259259256</v>
@@ -4756,31 +4467,28 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="H93">
-        <v>0.13100000000000001</v>
+        <v>0.47799999999999998</v>
       </c>
       <c r="I93">
-        <v>0.47799999999999998</v>
+        <v>-0.105</v>
       </c>
       <c r="J93">
-        <v>-0.105</v>
+        <v>0</v>
       </c>
       <c r="K93">
         <v>0</v>
       </c>
-      <c r="L93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="2"/>
         <v>3026</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D94">
         <v>0.26190476190476192</v>
@@ -4795,31 +4503,28 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H94">
-        <v>0.29899999999999999</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I94">
-        <v>0.27500000000000002</v>
+        <v>0.255</v>
       </c>
       <c r="J94">
-        <v>0.255</v>
+        <v>2</v>
       </c>
       <c r="K94">
-        <v>2</v>
-      </c>
-      <c r="L94">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="2"/>
         <v>3027</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D95">
         <v>0.27083333333333331</v>
@@ -4834,31 +4539,28 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="H95">
-        <v>8.3000000000000004E-2</v>
+        <v>0.376</v>
       </c>
       <c r="I95">
-        <v>0.376</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="J95">
-        <v>0.43099999999999999</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>0</v>
       </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="2"/>
         <v>3028</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D96">
         <v>0.48</v>
@@ -4873,31 +4575,28 @@
         <v>-0.127</v>
       </c>
       <c r="H96">
-        <v>-7.4999999999999997E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="I96">
-        <v>0.27700000000000002</v>
+        <v>0.112</v>
       </c>
       <c r="J96">
-        <v>0.112</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="2"/>
         <v>3029</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D97">
         <v>0.63636363636363635</v>
@@ -4912,31 +4611,28 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H97">
-        <v>0.29399999999999998</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="I97">
-        <v>0.41699999999999998</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="J97">
-        <v>0.17899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>0</v>
       </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" ref="B98:B117" si="3">RIGHT(A98,4)</f>
         <v>3030</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D98">
         <v>0.32608695652173908</v>
@@ -4951,31 +4647,28 @@
         <v>7.8E-2</v>
       </c>
       <c r="H98">
-        <v>0.17899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="I98">
-        <v>0.17</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="J98">
-        <v>8.6999999999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="K98">
         <v>0</v>
       </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="3"/>
         <v>3031</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D99">
         <v>0.2857142857142857</v>
@@ -4990,31 +4683,28 @@
         <v>0.48</v>
       </c>
       <c r="H99">
-        <v>0.29899999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="I99">
-        <v>0.49</v>
+        <v>0.436</v>
       </c>
       <c r="J99">
-        <v>0.436</v>
+        <v>1</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
         <v>0.05</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="3"/>
         <v>3032</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D100">
         <v>0.35294117647058831</v>
@@ -5029,31 +4719,28 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="H100">
-        <v>0.33100000000000002</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="I100">
-        <v>0.51400000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="J100">
-        <v>0.30199999999999999</v>
+        <v>2</v>
       </c>
       <c r="K100">
-        <v>2</v>
-      </c>
-      <c r="L100">
         <v>0.10526315789473679</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="3"/>
         <v>3033</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D101">
         <v>0.6</v>
@@ -5068,31 +4755,28 @@
         <v>0.109</v>
       </c>
       <c r="H101">
-        <v>0.32</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="I101">
-        <v>0.14599999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="J101">
-        <v>0.34100000000000003</v>
+        <v>2</v>
       </c>
       <c r="K101">
-        <v>2</v>
-      </c>
-      <c r="L101">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="3"/>
         <v>3034</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <v>0.19607843137254899</v>
@@ -5107,31 +4791,28 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H102">
-        <v>0.35399999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="I102">
-        <v>0.15</v>
+        <v>-0.16300000000000001</v>
       </c>
       <c r="J102">
-        <v>-0.16300000000000001</v>
+        <v>1</v>
       </c>
       <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="3"/>
         <v>3035</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D103">
         <v>0.48148148148148151</v>
@@ -5146,31 +4827,28 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="H103">
-        <v>0.13100000000000001</v>
+        <v>0.499</v>
       </c>
       <c r="I103">
-        <v>0.499</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="J103">
-        <v>0.22700000000000001</v>
+        <v>1</v>
       </c>
       <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="3"/>
         <v>3036</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D104">
         <v>0.52500000000000002</v>
@@ -5185,31 +4863,28 @@
         <v>-1.9E-2</v>
       </c>
       <c r="H104">
-        <v>0.192</v>
+        <v>0.43</v>
       </c>
       <c r="I104">
-        <v>0.43</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J104">
-        <v>0.28000000000000003</v>
+        <v>6</v>
       </c>
       <c r="K104">
-        <v>6</v>
-      </c>
-      <c r="L104">
         <v>0.24</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="3"/>
         <v>3037</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D105">
         <v>0.59090909090909094</v>
@@ -5224,31 +4899,28 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="H105">
-        <v>0.29399999999999998</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="I105">
-        <v>0.11700000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="J105">
-        <v>0.245</v>
+        <v>1</v>
       </c>
       <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="3"/>
         <v>3038</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D106">
         <v>0.51428571428571423</v>
@@ -5263,31 +4935,28 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="H106">
-        <v>0.09</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="I106">
-        <v>0.20799999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="J106">
-        <v>0.23799999999999999</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="3"/>
         <v>3039</v>
       </c>
       <c r="C107" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D107">
         <v>0.25</v>
@@ -5302,31 +4971,28 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H107">
-        <v>0.29899999999999999</v>
+        <v>0.127</v>
       </c>
       <c r="I107">
-        <v>0.127</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
       <c r="J107">
-        <v>-4.2999999999999997E-2</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="3"/>
         <v>3040</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D108">
         <v>0.47619047619047622</v>
@@ -5341,31 +5007,28 @@
         <v>-0.20300000000000001</v>
       </c>
       <c r="H108">
-        <v>0.27800000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I108">
-        <v>0.28999999999999998</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="J108">
-        <v>0.23799999999999999</v>
+        <v>5</v>
       </c>
       <c r="K108">
-        <v>5</v>
-      </c>
-      <c r="L108">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="3"/>
         <v>3041</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D109">
         <v>0.76666666666666672</v>
@@ -5380,31 +5043,28 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="H109">
-        <v>0.23100000000000001</v>
+        <v>-0.161</v>
       </c>
       <c r="I109">
-        <v>-0.161</v>
+        <v>0.35</v>
       </c>
       <c r="J109">
-        <v>0.35</v>
+        <v>4</v>
       </c>
       <c r="K109">
-        <v>4</v>
-      </c>
-      <c r="L109">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="3"/>
         <v>3042</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D110">
         <v>0.41666666666666669</v>
@@ -5419,31 +5079,28 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="H110">
-        <v>8.3000000000000004E-2</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="I110">
-        <v>0.33300000000000002</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="J110">
-        <v>0.41599999999999998</v>
+        <v>6</v>
       </c>
       <c r="K110">
-        <v>6</v>
-      </c>
-      <c r="L110">
         <v>0.13636363636363641</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="3"/>
         <v>3043</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D111">
         <v>0.625</v>
@@ -5458,31 +5115,28 @@
         <v>0.125</v>
       </c>
       <c r="H111">
-        <v>0.29899999999999999</v>
+        <v>0.26900000000000002</v>
       </c>
       <c r="I111">
-        <v>0.26900000000000002</v>
+        <v>0.104</v>
       </c>
       <c r="J111">
-        <v>0.104</v>
+        <v>7</v>
       </c>
       <c r="K111">
-        <v>7</v>
-      </c>
-      <c r="L111">
         <v>0.1228070175438596</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="3"/>
         <v>3044</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D112">
         <v>0.64</v>
@@ -5497,31 +5151,28 @@
         <v>-0.13200000000000001</v>
       </c>
       <c r="H112">
-        <v>-7.4999999999999997E-2</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="I112">
-        <v>0.48899999999999999</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="J112">
-        <v>0.40200000000000002</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="3"/>
         <v>3045</v>
       </c>
       <c r="C113" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D113">
         <v>0.46666666666666667</v>
@@ -5536,31 +5187,28 @@
         <v>0.15</v>
       </c>
       <c r="H113">
-        <v>0.23100000000000001</v>
+        <v>0.28699999999999998</v>
       </c>
       <c r="I113">
-        <v>0.28699999999999998</v>
+        <v>0.14899999999999999</v>
       </c>
       <c r="J113">
-        <v>0.14899999999999999</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>0</v>
       </c>
-      <c r="L113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="3"/>
         <v>3046</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D114">
         <v>0.25714285714285712</v>
@@ -5575,31 +5223,28 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="H114">
-        <v>0.09</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="I114">
-        <v>9.1999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J114">
-        <v>3.3000000000000002E-2</v>
+        <v>2</v>
       </c>
       <c r="K114">
-        <v>2</v>
-      </c>
-      <c r="L114">
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="3"/>
         <v>3047</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D115">
         <v>0.36</v>
@@ -5614,31 +5259,28 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="H115">
-        <v>0.17599999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="I115">
-        <v>0.46700000000000003</v>
+        <v>0.219</v>
       </c>
       <c r="J115">
-        <v>0.219</v>
+        <v>2</v>
       </c>
       <c r="K115">
-        <v>2</v>
-      </c>
-      <c r="L115">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="3"/>
         <v>3048</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>0.58695652173913049</v>
@@ -5653,31 +5295,28 @@
         <v>0.222</v>
       </c>
       <c r="H116">
-        <v>0.32400000000000001</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="I116">
-        <v>0.54100000000000004</v>
+        <v>0.255</v>
       </c>
       <c r="J116">
-        <v>0.255</v>
+        <v>2</v>
       </c>
       <c r="K116">
-        <v>2</v>
-      </c>
-      <c r="L116">
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B117" t="str">
         <f t="shared" si="3"/>
         <v>3049</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>0.52</v>
@@ -5692,23 +5331,20 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="H117">
-        <v>0.32</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="I117">
-        <v>0.30099999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="J117">
-        <v>0.25700000000000001</v>
+        <v>1</v>
       </c>
       <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117">
         <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L117">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K117">
     <sortCondition ref="B80:B117"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5717,1497 +5353,1624 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4120BB9-4339-ED4B-9C11-0CDD98681F3B}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="D2">
+        <v>0.34</v>
+      </c>
+      <c r="E2">
+        <v>0.40100000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0.01</v>
+      </c>
+      <c r="D3">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E3">
+        <v>-0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D5">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="E5">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D6">
+        <v>-0.158</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E7">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="D8">
+        <v>-5.6000000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>0.192</v>
+      </c>
+      <c r="E9">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>9.4E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.26700000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="D11">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.29299999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="E12">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D13">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="D14">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E14">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="D15">
+        <v>-0.124</v>
+      </c>
+      <c r="E15">
+        <v>-0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>0.378</v>
+      </c>
+      <c r="D16">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E18">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>0.128</v>
+      </c>
+      <c r="D19">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="E19">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.32200000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>0.121</v>
+      </c>
+      <c r="D21">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>0.109</v>
+      </c>
+      <c r="D22">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.309</v>
+      </c>
+      <c r="E23">
+        <v>0.252</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06202F0C-D28B-CE48-9801-8E91D2A80670}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K1" activeCellId="14" sqref="M1:M1048576 N1:N1048576 O1 P1:P1048576 O1:O1048576 Q1:Q1048576 R1 S1:S1048576 R1:R1048576 T1:T1048576 U1:U1048576 V1:V1048576 W1:W1048576 L1:L1048576 K1:K1048576"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.84375" customWidth="1"/>
-    <col min="29" max="29" width="18" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C2">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D2">
+        <v>0.184</v>
+      </c>
+      <c r="E2">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D3">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="E3">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D4">
+        <v>0.313</v>
+      </c>
+      <c r="E4">
+        <v>-0.29799999999999999</v>
+      </c>
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D5">
+        <v>0.216</v>
+      </c>
+      <c r="E5">
+        <v>0.188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="C6">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D6">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B2">
-        <v>0.63200000000000001</v>
-      </c>
-      <c r="C2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D2">
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="E2">
-        <v>0.184</v>
-      </c>
-      <c r="F2">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G2">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="H2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C7">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="F7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B3">
-        <v>-0.70699999999999996</v>
-      </c>
-      <c r="C3">
+      <c r="B8">
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="C8">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="E8">
+        <v>0.193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9">
+        <v>0.26</v>
+      </c>
+      <c r="D9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C10">
+        <v>0.4</v>
+      </c>
+      <c r="D10">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E10">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="C11">
+        <v>0.22</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C12">
+        <v>0.218</v>
+      </c>
+      <c r="D12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C13">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.442</v>
+      </c>
+      <c r="F13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C14">
+        <v>0.123</v>
+      </c>
+      <c r="D14">
+        <v>-0.13900000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D15">
+        <v>-0.188</v>
+      </c>
+      <c r="E15">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C16">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.12</v>
+      </c>
+      <c r="E16">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="D17">
+        <v>0.114</v>
+      </c>
+      <c r="E17">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C18">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="D18">
+        <v>-0.22800000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
         <v>0.5</v>
       </c>
-      <c r="D3">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="E3">
-        <v>0.11600000000000001</v>
-      </c>
-      <c r="F3">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="G3">
-        <v>-0.17599999999999999</v>
-      </c>
-      <c r="H3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="C4">
+      <c r="C19">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="D19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E19">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
         <v>0.5</v>
       </c>
-      <c r="D4">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E4">
-        <v>0.313</v>
-      </c>
-      <c r="F4">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G4">
-        <v>-0.29799999999999999</v>
-      </c>
-      <c r="H4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.5</v>
-      </c>
-      <c r="D5">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.216</v>
-      </c>
-      <c r="F5">
-        <v>0.35399999999999998</v>
-      </c>
-      <c r="G5">
-        <v>0.188</v>
-      </c>
-      <c r="H5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I5" t="s">
-        <v>243</v>
-      </c>
-      <c r="J5" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6">
-        <v>0.251</v>
-      </c>
-      <c r="C6">
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="D6">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.29799999999999999</v>
-      </c>
-      <c r="F6">
-        <v>0.09</v>
-      </c>
-      <c r="G6">
-        <v>0.19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-      <c r="C7">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D7">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="E7">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="F7">
-        <v>0.09</v>
-      </c>
-      <c r="G7">
-        <v>0.35199999999999998</v>
-      </c>
-      <c r="H7" t="s">
-        <v>180</v>
-      </c>
-      <c r="I7" t="s">
-        <v>181</v>
-      </c>
-      <c r="J7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <v>-0.378</v>
-      </c>
-      <c r="C8">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="D8">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="E8">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="F8">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G8">
-        <v>0.193</v>
-      </c>
-      <c r="H8" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
-        <v>-0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D9">
-        <v>0.26</v>
-      </c>
-      <c r="E9">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>0.32400000000000001</v>
-      </c>
-      <c r="G9">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="H9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>-0.189</v>
-      </c>
-      <c r="C10">
+      <c r="C20">
+        <v>0.435</v>
+      </c>
+      <c r="D20">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E20">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="C21">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D21">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22">
+        <v>0.4</v>
+      </c>
+      <c r="C22">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>189</v>
+      </c>
+      <c r="H22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="C23">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="E23">
+        <v>-0.108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>203</v>
+      </c>
+      <c r="H23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24">
+        <v>0.46153846153846162</v>
+      </c>
+      <c r="C24">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="D24">
+        <v>0.215</v>
+      </c>
+      <c r="E24">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>183</v>
+      </c>
+      <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="C25">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D25">
+        <v>0.25</v>
+      </c>
+      <c r="E25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26">
         <v>0.7142857142857143</v>
       </c>
-      <c r="D10">
-        <v>0.4</v>
-      </c>
-      <c r="E10">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="F10">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G10">
-        <v>6.3E-2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="C11">
-        <v>0.6428571428571429</v>
-      </c>
-      <c r="D11">
-        <v>0.22</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0.27800000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.161</v>
-      </c>
-      <c r="H11" t="s">
-        <v>175</v>
-      </c>
-      <c r="I11" t="s">
-        <v>176</v>
-      </c>
-      <c r="J11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-      <c r="C12">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D12">
-        <v>0.218</v>
-      </c>
-      <c r="E12">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F12">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G12">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="H12" t="s">
-        <v>183</v>
-      </c>
-      <c r="I12" t="s">
-        <v>184</v>
-      </c>
-      <c r="J12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>-0.22800000000000001</v>
-      </c>
-      <c r="C13">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D13">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="E13">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G13">
-        <v>0.442</v>
-      </c>
-      <c r="H13" t="s">
-        <v>158</v>
-      </c>
-      <c r="I13" t="s">
-        <v>159</v>
-      </c>
-      <c r="J13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14">
-        <v>-0.17499999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D14">
-        <v>0.123</v>
-      </c>
-      <c r="E14">
-        <v>-0.13900000000000001</v>
-      </c>
-      <c r="F14">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G14">
-        <v>0.26400000000000001</v>
-      </c>
-      <c r="H14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15">
-        <v>0.433</v>
-      </c>
-      <c r="C15">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D15">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E15">
-        <v>-0.188</v>
-      </c>
-      <c r="F15">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="H15" t="s">
-        <v>234</v>
-      </c>
-      <c r="I15" t="s">
-        <v>235</v>
-      </c>
-      <c r="J15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16">
-        <v>-0.35699999999999998</v>
-      </c>
-      <c r="C16">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="D16">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.12</v>
-      </c>
-      <c r="F16">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G16">
-        <v>0.45200000000000001</v>
-      </c>
-      <c r="H16" t="s">
-        <v>155</v>
-      </c>
-      <c r="I16" t="s">
-        <v>156</v>
-      </c>
-      <c r="J16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C17">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D17">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="E17">
-        <v>0.114</v>
-      </c>
-      <c r="F17">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G17">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>209</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="C26">
+        <v>0.49</v>
+      </c>
+      <c r="D26">
+        <v>0.156</v>
+      </c>
+      <c r="E26">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="F26" t="s">
         <v>210</v>
       </c>
-      <c r="J17" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="C18">
+      <c r="G26" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D18">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E18">
-        <v>-0.22800000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="G18">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="H18" t="s">
-        <v>203</v>
-      </c>
-      <c r="I18" t="s">
-        <v>204</v>
-      </c>
-      <c r="J18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="D19">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="E19">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="F19">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G19">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="H19" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" t="s">
-        <v>192</v>
-      </c>
-      <c r="J19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20">
-        <v>-0.14899999999999999</v>
-      </c>
-      <c r="C20">
-        <v>0.5</v>
-      </c>
-      <c r="D20">
-        <v>0.435</v>
-      </c>
-      <c r="E20">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="F20">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.60699999999999998</v>
-      </c>
-      <c r="H20" t="s">
-        <v>177</v>
-      </c>
-      <c r="I20" t="s">
-        <v>178</v>
-      </c>
-      <c r="J20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21">
-        <v>-0.443</v>
-      </c>
-      <c r="C21">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D21">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="E21">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="F21">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G21">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0.4</v>
-      </c>
-      <c r="D22">
-        <v>0.48599999999999999</v>
-      </c>
-      <c r="E22">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="F22">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="G22">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="H22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I22" t="s">
-        <v>194</v>
-      </c>
-      <c r="J22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="C27">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="D27">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E27">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>75</v>
       </c>
-      <c r="B23">
-        <v>0.158</v>
-      </c>
-      <c r="C23">
-        <v>0.30769230769230771</v>
-      </c>
-      <c r="D23">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E23">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="F23">
-        <v>0.192</v>
-      </c>
-      <c r="G23">
-        <v>-0.108</v>
-      </c>
-      <c r="H23" t="s">
-        <v>207</v>
-      </c>
-      <c r="I23" t="s">
-        <v>208</v>
-      </c>
-      <c r="J23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24">
-        <v>-7.0999999999999994E-2</v>
-      </c>
-      <c r="C24">
-        <v>0.46153846153846162</v>
-      </c>
-      <c r="D24">
-        <v>0.28299999999999997</v>
-      </c>
-      <c r="E24">
-        <v>0.215</v>
-      </c>
-      <c r="F24">
-        <v>0.192</v>
-      </c>
-      <c r="G24">
+      <c r="B28">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="C28">
         <v>0.32500000000000001</v>
-      </c>
-      <c r="H24" t="s">
-        <v>188</v>
-      </c>
-      <c r="I24" t="s">
-        <v>189</v>
-      </c>
-      <c r="J24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25">
-        <v>0.22</v>
-      </c>
-      <c r="C25">
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="D25">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="E25">
-        <v>0.25</v>
-      </c>
-      <c r="F25">
-        <v>0.247</v>
-      </c>
-      <c r="G25">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H25" t="s">
-        <v>218</v>
-      </c>
-      <c r="I25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J25" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="C26">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D26">
-        <v>0.49</v>
-      </c>
-      <c r="E26">
-        <v>0.156</v>
-      </c>
-      <c r="F26">
-        <v>0.247</v>
-      </c>
-      <c r="G26">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>215</v>
-      </c>
-      <c r="I26" t="s">
-        <v>216</v>
-      </c>
-      <c r="J26" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27">
-        <v>5.5E-2</v>
-      </c>
-      <c r="C27">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="D27">
-        <v>0.20599999999999999</v>
-      </c>
-      <c r="E27">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="F27">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G27">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="H27" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" t="s">
-        <v>201</v>
-      </c>
-      <c r="J27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28">
-        <v>0.193</v>
-      </c>
-      <c r="C28">
-        <v>0.61111111111111116</v>
       </c>
       <c r="D28">
         <v>0.32500000000000001</v>
       </c>
       <c r="E28">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="F28">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="G28">
         <v>-3.5000000000000003E-2</v>
       </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>209</v>
+      </c>
       <c r="H28" t="s">
-        <v>213</v>
-      </c>
-      <c r="I28" t="s">
-        <v>214</v>
-      </c>
-      <c r="J28" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C29">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="D29">
+        <v>0.3</v>
+      </c>
+      <c r="E29">
+        <v>0.183</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" t="s">
+        <v>228</v>
+      </c>
+      <c r="H29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C30">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>180</v>
+      </c>
+      <c r="G30" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="C31">
+        <v>0.246</v>
+      </c>
+      <c r="D31">
+        <v>0.126</v>
+      </c>
+      <c r="E31">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" t="s">
+        <v>193</v>
+      </c>
+      <c r="H31" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C32">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D32">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E32">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="F32" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" t="s">
+        <v>207</v>
+      </c>
+      <c r="H32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33">
+        <v>0.371</v>
+      </c>
+      <c r="D33">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
         <v>81</v>
       </c>
-      <c r="B29">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="C29">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="D29">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="E29">
-        <v>0.3</v>
-      </c>
-      <c r="F29">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="G29">
-        <v>0.183</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="D34">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E34">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>0.625</v>
+      </c>
+      <c r="C35">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D35">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="E35">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>0.5</v>
+      </c>
+      <c r="C36">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D36">
+        <v>0.127</v>
+      </c>
+      <c r="E36">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>0.75</v>
+      </c>
+      <c r="C37">
+        <v>0.248</v>
+      </c>
+      <c r="D37">
+        <v>-0.129</v>
+      </c>
+      <c r="E37">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="F37" t="s">
+        <v>190</v>
+      </c>
+      <c r="G37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>0.5</v>
+      </c>
+      <c r="C38">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="D38">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E38">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>0.5</v>
+      </c>
+      <c r="C39">
+        <v>0.254</v>
+      </c>
+      <c r="D39">
+        <v>0.215</v>
+      </c>
+      <c r="E39">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="F39" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C40">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D40">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="E40">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G40" t="s">
+        <v>219</v>
+      </c>
+      <c r="H40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>0.375</v>
+      </c>
+      <c r="C41">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D41">
+        <v>-0.316</v>
+      </c>
+      <c r="E41">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F41" t="s">
+        <v>140</v>
+      </c>
+      <c r="G41" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>0.75</v>
+      </c>
+      <c r="C42">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="D42">
+        <v>-0.184</v>
+      </c>
+      <c r="E42">
+        <v>0.41</v>
+      </c>
+      <c r="F42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G42" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>0.5</v>
+      </c>
+      <c r="C43">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="D43">
+        <v>0.497</v>
+      </c>
+      <c r="E43">
+        <v>0.48</v>
+      </c>
+      <c r="F43" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>0.4</v>
+      </c>
+      <c r="C44">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="D44">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="E44">
+        <v>-0.3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C45">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D45">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E45">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" t="s">
         <v>232</v>
       </c>
-      <c r="I29" t="s">
-        <v>233</v>
-      </c>
-      <c r="J29" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30">
-        <v>-9.0999999999999998E-2</v>
-      </c>
-      <c r="C30">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="D30">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="E30">
-        <v>0.19700000000000001</v>
-      </c>
-      <c r="F30">
-        <v>0.17599999999999999</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>185</v>
-      </c>
-      <c r="I30" t="s">
-        <v>186</v>
-      </c>
-      <c r="J30" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31">
-        <v>0.03</v>
-      </c>
-      <c r="C31">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="D31">
-        <v>0.246</v>
-      </c>
-      <c r="E31">
-        <v>0.126</v>
-      </c>
-      <c r="F31">
-        <v>0.192</v>
-      </c>
-      <c r="G31">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="H31" t="s">
-        <v>197</v>
-      </c>
-      <c r="I31" t="s">
-        <v>198</v>
-      </c>
-      <c r="J31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32">
-        <v>0.182</v>
-      </c>
-      <c r="C32">
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="D32">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="E32">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="F32">
-        <v>0.192</v>
-      </c>
-      <c r="G32">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="H32" t="s">
-        <v>211</v>
-      </c>
-      <c r="I32" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33">
-        <v>-0.17399999999999999</v>
-      </c>
-      <c r="C33">
-        <v>0.5</v>
-      </c>
-      <c r="D33">
-        <v>0.371</v>
-      </c>
-      <c r="E33">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="F33">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="G33">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="H45" t="s">
         <v>169</v>
       </c>
-      <c r="I33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34">
-        <v>0.745</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-      <c r="D34">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="E34">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="F34">
-        <v>0.33100000000000002</v>
-      </c>
-      <c r="G34">
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="H34" t="s">
-        <v>240</v>
-      </c>
-      <c r="I34" t="s">
-        <v>241</v>
-      </c>
-      <c r="J34" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="C35">
-        <v>0.625</v>
-      </c>
-      <c r="D35">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E35">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="F35">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G35">
-        <v>0.54600000000000004</v>
-      </c>
-      <c r="H35" t="s">
-        <v>205</v>
-      </c>
-      <c r="I35" t="s">
-        <v>206</v>
-      </c>
-      <c r="J35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>-0.5</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
-      </c>
-      <c r="D36">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E36">
-        <v>0.127</v>
-      </c>
-      <c r="F36">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G36">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="H36" t="s">
-        <v>136</v>
-      </c>
-      <c r="I36" t="s">
-        <v>148</v>
-      </c>
-      <c r="J36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="C37">
-        <v>0.75</v>
-      </c>
-      <c r="D37">
-        <v>0.248</v>
-      </c>
-      <c r="E37">
-        <v>-0.129</v>
-      </c>
-      <c r="F37">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="G37">
-        <v>0.27100000000000002</v>
-      </c>
-      <c r="H37" t="s">
-        <v>195</v>
-      </c>
-      <c r="I37" t="s">
-        <v>229</v>
-      </c>
-      <c r="J37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>-0.77500000000000002</v>
-      </c>
-      <c r="C38">
-        <v>0.5</v>
-      </c>
-      <c r="D38">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="E38">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F38">
-        <v>0.32</v>
-      </c>
-      <c r="G38">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="H38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
-      </c>
-      <c r="J38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39">
-        <v>0.254</v>
-      </c>
-      <c r="E39">
-        <v>0.215</v>
-      </c>
-      <c r="F39">
-        <v>0.32</v>
-      </c>
-      <c r="G39">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="H39" t="s">
-        <v>228</v>
-      </c>
-      <c r="I39" t="s">
-        <v>146</v>
-      </c>
-      <c r="J39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>0.25</v>
-      </c>
-      <c r="C40">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="D40">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="E40">
-        <v>-7.6999999999999999E-2</v>
-      </c>
-      <c r="F40">
-        <v>0.111</v>
-      </c>
-      <c r="G40">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="H40" t="s">
-        <v>223</v>
-      </c>
-      <c r="I40" t="s">
-        <v>224</v>
-      </c>
-      <c r="J40" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B41">
-        <v>-0.6</v>
-      </c>
-      <c r="C41">
-        <v>0.375</v>
-      </c>
-      <c r="D41">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="E41">
-        <v>-0.316</v>
-      </c>
-      <c r="F41">
-        <v>-0.191</v>
-      </c>
-      <c r="G41">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="H41" t="s">
-        <v>145</v>
-      </c>
-      <c r="I41" t="s">
-        <v>146</v>
-      </c>
-      <c r="J41" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0.75</v>
-      </c>
-      <c r="D42">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="E42">
-        <v>-0.184</v>
-      </c>
-      <c r="F42">
-        <v>-0.191</v>
-      </c>
-      <c r="G42">
-        <v>0.41</v>
-      </c>
-      <c r="H42" t="s">
-        <v>195</v>
-      </c>
-      <c r="I42" t="s">
-        <v>196</v>
-      </c>
-      <c r="J42" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43">
-        <v>0.40799999999999997</v>
-      </c>
-      <c r="C43">
-        <v>0.5</v>
-      </c>
-      <c r="D43">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="E43">
-        <v>0.497</v>
-      </c>
-      <c r="F43">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G43">
-        <v>0.48</v>
-      </c>
-      <c r="H43" t="s">
-        <v>230</v>
-      </c>
-      <c r="I43" t="s">
-        <v>231</v>
-      </c>
-      <c r="J43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44">
-        <v>-0.66700000000000004</v>
-      </c>
-      <c r="C44">
-        <v>0.4</v>
-      </c>
-      <c r="D44">
-        <v>0.32200000000000001</v>
-      </c>
-      <c r="E44">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="F44">
-        <v>0.23100000000000001</v>
-      </c>
-      <c r="G44">
-        <v>-0.3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="C45">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D45">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="E45">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="F45">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G45">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H45" t="s">
-        <v>236</v>
-      </c>
-      <c r="I45" t="s">
-        <v>237</v>
-      </c>
-      <c r="J45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
       <c r="B46">
-        <v>-0.158</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C46">
-        <v>0.55555555555555558</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D46">
-        <v>4.3999999999999997E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="E46">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="F46">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="G46">
         <v>0.28499999999999998</v>
       </c>
+      <c r="F46" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" t="s">
+        <v>168</v>
+      </c>
       <c r="H46" t="s">
-        <v>172</v>
-      </c>
-      <c r="I46" t="s">
-        <v>173</v>
-      </c>
-      <c r="J46" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="49" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="50" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="51" hidden="1" x14ac:dyDescent="0.35"/>
@@ -7216,8 +6979,8 @@
     <row r="54" hidden="1" x14ac:dyDescent="0.35"/>
     <row r="55" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AC2:AD117">
-    <sortCondition ref="AC1:AC117"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N2:O117">
+    <sortCondition ref="N1:N117"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/overall_data/adventure_result.xlsx
+++ b/data/overall_data/adventure_result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JHU\Research\Honey's Lab\Agency_choice_memory\reproduce\data\overall_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDAD734-8F5F-4BC7-A0E7-B63DCE5F050B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2A835-3AA2-4D8D-A701-3573D2C08134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="1450" windowWidth="15390" windowHeight="13740" xr2:uid="{3C7A328E-4A82-E648-80EF-E715D510E8D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="240">
   <si>
     <t>sem-ef</t>
   </si>
@@ -756,12 +756,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>idv-sem-ef</t>
-  </si>
-  <si>
-    <t>idv-caus-ef</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106A7EB6-860A-1144-8B39-C1E000CAA824}">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I117"/>
+    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1132,7 +1126,7 @@
     <col min="2" max="2" width="8.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1155,19 +1149,13 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1191,19 +1179,13 @@
         <v>0.40100000000000002</v>
       </c>
       <c r="H2">
-        <v>0.30499999999999999</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0.371</v>
-      </c>
-      <c r="J2">
-        <v>2</v>
-      </c>
-      <c r="K2">
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1227,19 +1209,13 @@
         <v>-0.28199999999999997</v>
       </c>
       <c r="H3">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>-5.3999999999999999E-2</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
         <v>4.1666666666666657E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1263,19 +1239,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H4">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>0.309</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1299,19 +1269,13 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="H5">
-        <v>0.59499999999999997</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.621</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1335,19 +1299,13 @@
         <v>0.09</v>
       </c>
       <c r="H6">
-        <v>-0.20899999999999999</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1371,19 +1329,13 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="H7">
-        <v>0.27100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.307</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1407,19 +1359,13 @@
         <v>0.221</v>
       </c>
       <c r="H8">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1443,19 +1389,13 @@
         <v>0.311</v>
       </c>
       <c r="H9">
-        <v>0.183</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1479,19 +1419,13 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="H10">
-        <v>0.376</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0.371</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
         <v>4.5454545454545463E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1515,19 +1449,13 @@
         <v>0.29299999999999998</v>
       </c>
       <c r="H11">
-        <v>0.58499999999999996</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1551,19 +1479,13 @@
         <v>0.115</v>
       </c>
       <c r="H12">
-        <v>0.24299999999999999</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="J12">
-        <v>4</v>
-      </c>
-      <c r="K12">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1587,19 +1509,13 @@
         <v>0.49399999999999999</v>
       </c>
       <c r="H13">
-        <v>8.3000000000000004E-2</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1623,19 +1539,13 @@
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H14">
-        <v>-6.0000000000000001E-3</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
         <v>0.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1659,19 +1569,13 @@
         <v>-0.26400000000000001</v>
       </c>
       <c r="H15">
-        <v>-0.17100000000000001</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1695,19 +1599,13 @@
         <v>0.222</v>
       </c>
       <c r="H16">
-        <v>0.182</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
         <v>4.0816326530612242E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1731,19 +1629,13 @@
         <v>0.219</v>
       </c>
       <c r="H17">
-        <v>0.32800000000000001</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
         <v>6.0606060606060608E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1767,19 +1659,13 @@
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H18">
-        <v>0.59799999999999998</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1803,19 +1689,13 @@
         <v>0.16300000000000001</v>
       </c>
       <c r="H19">
-        <v>0.56499999999999995</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-      <c r="K19">
         <v>0.1875</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1839,19 +1719,13 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="H20">
-        <v>0.20799999999999999</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>0.38100000000000001</v>
-      </c>
-      <c r="J20">
-        <v>5</v>
-      </c>
-      <c r="K20">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1875,19 +1749,13 @@
         <v>0.36699999999999999</v>
       </c>
       <c r="H21">
-        <v>7.3999999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1911,19 +1779,13 @@
         <v>0.27200000000000002</v>
       </c>
       <c r="H22">
-        <v>0.19</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1947,19 +1809,13 @@
         <v>0.252</v>
       </c>
       <c r="H23">
-        <v>0.23899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1983,19 +1839,13 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="H24">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.373</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2019,19 +1869,13 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="H25">
-        <v>0.312</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0.41099999999999998</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
         <v>4.7619047619047623E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -2055,19 +1899,13 @@
         <v>0.184</v>
       </c>
       <c r="H26">
-        <v>0.58099999999999996</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.311</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2091,19 +1929,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="H27">
-        <v>0.59899999999999998</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0.20699999999999999</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -2127,19 +1959,13 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="H28">
-        <v>0.19900000000000001</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2163,19 +1989,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H29">
-        <v>0.221</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>0.24</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -2199,19 +2019,13 @@
         <v>0.313</v>
       </c>
       <c r="H30">
-        <v>0.33400000000000002</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2235,19 +2049,13 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H31">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -2271,19 +2079,13 @@
         <v>0.47599999999999998</v>
       </c>
       <c r="H32">
-        <v>0.40100000000000002</v>
+        <v>4</v>
       </c>
       <c r="I32">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -2307,19 +2109,13 @@
         <v>0.12</v>
       </c>
       <c r="H33">
-        <v>0.23799999999999999</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33">
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2343,19 +2139,13 @@
         <v>0.497</v>
       </c>
       <c r="H34">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2379,19 +2169,13 @@
         <v>-0.316</v>
       </c>
       <c r="H35">
-        <v>0.55000000000000004</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>8.8999999999999996E-2</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -2415,19 +2199,13 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H36">
-        <v>0.33400000000000002</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0.3</v>
-      </c>
-      <c r="J36">
-        <v>2</v>
-      </c>
-      <c r="K36">
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -2451,19 +2229,13 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="H37">
-        <v>0.40200000000000002</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>0.36499999999999999</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -2487,19 +2259,13 @@
         <v>0.25</v>
       </c>
       <c r="H38">
-        <v>0.374</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -2523,19 +2289,13 @@
         <v>0.126</v>
       </c>
       <c r="H39">
-        <v>0.28199999999999997</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2559,19 +2319,13 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="H40">
-        <v>0.46100000000000002</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -2595,19 +2349,13 @@
         <v>-0.184</v>
       </c>
       <c r="H41">
-        <v>0.44600000000000001</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>0.126</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -2631,19 +2379,13 @@
         <v>-0.13900000000000001</v>
       </c>
       <c r="H42">
-        <v>0.154</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>-0.21</v>
-      </c>
-      <c r="J42">
-        <v>2</v>
-      </c>
-      <c r="K42">
         <v>8.6956521739130432E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2667,19 +2409,13 @@
         <v>0.38700000000000001</v>
       </c>
       <c r="H43">
-        <v>-0.129</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0.436</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -2703,19 +2439,13 @@
         <v>0.156</v>
       </c>
       <c r="H44">
-        <v>0.50700000000000001</v>
+        <v>6</v>
       </c>
       <c r="I44">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="J44">
-        <v>6</v>
-      </c>
-      <c r="K44">
         <v>0.13043478260869559</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -2739,19 +2469,13 @@
         <v>0.46300000000000002</v>
       </c>
       <c r="H45">
-        <v>0.27100000000000002</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0.39400000000000002</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -2775,19 +2499,13 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="H46">
-        <v>0.20499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0.311</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -2811,19 +2529,13 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H47">
-        <v>0.19900000000000001</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>-0.159</v>
-      </c>
-      <c r="J47">
-        <v>2</v>
-      </c>
-      <c r="K47">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -2847,19 +2559,13 @@
         <v>0.127</v>
       </c>
       <c r="H48">
-        <v>0.38200000000000001</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>0.18099999999999999</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -2883,19 +2589,13 @@
         <v>0.28499999999999998</v>
       </c>
       <c r="H49">
-        <v>0.193</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2919,19 +2619,13 @@
         <v>0.216</v>
       </c>
       <c r="H50">
-        <v>0.51400000000000001</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0.61699999999999999</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -2955,19 +2649,13 @@
         <v>-0.129</v>
       </c>
       <c r="H51">
-        <v>0.31900000000000001</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2991,19 +2679,13 @@
         <v>0.114</v>
       </c>
       <c r="H52">
-        <v>0.54500000000000004</v>
+        <v>7</v>
       </c>
       <c r="I52">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="J52">
-        <v>7</v>
-      </c>
-      <c r="K52">
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -3027,19 +2709,13 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="H53">
-        <v>-5.5E-2</v>
+        <v>1</v>
       </c>
       <c r="I53">
-        <v>-3.6999999999999998E-2</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -3063,19 +2739,13 @@
         <v>0.25800000000000001</v>
       </c>
       <c r="H54">
-        <v>0.45900000000000002</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>64</v>
       </c>
@@ -3099,19 +2769,13 @@
         <v>-0.188</v>
       </c>
       <c r="H55">
-        <v>0.16500000000000001</v>
+        <v>7</v>
       </c>
       <c r="I55">
-        <v>-0.254</v>
-      </c>
-      <c r="J55">
-        <v>7</v>
-      </c>
-      <c r="K55">
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>81</v>
       </c>
@@ -3135,19 +2799,13 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="H56">
-        <v>0.28799999999999998</v>
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>0.38500000000000001</v>
-      </c>
-      <c r="J56">
-        <v>4</v>
-      </c>
-      <c r="K56">
         <v>7.8431372549019607E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -3171,19 +2829,13 @@
         <v>0.32500000000000001</v>
       </c>
       <c r="H57">
-        <v>0.38600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -3207,19 +2859,13 @@
         <v>0.20699999999999999</v>
       </c>
       <c r="H58">
-        <v>0.35199999999999998</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>68</v>
       </c>
@@ -3243,19 +2889,13 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="H59">
-        <v>0.50800000000000001</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>-1.0999999999999999E-2</v>
-      </c>
-      <c r="J59">
-        <v>3</v>
-      </c>
-      <c r="K59">
         <v>6.8181818181818177E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -3279,19 +2919,13 @@
         <v>-0.22800000000000001</v>
       </c>
       <c r="H60">
-        <v>0.245</v>
+        <v>11</v>
       </c>
       <c r="I60">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="J60">
-        <v>11</v>
-      </c>
-      <c r="K60">
         <v>0.14473684210526319</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>76</v>
       </c>
@@ -3315,19 +2949,13 @@
         <v>0.3</v>
       </c>
       <c r="H61">
-        <v>0.26800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0.191</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3351,19 +2979,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.17599999999999999</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>3</v>
-      </c>
-      <c r="K62">
         <v>0.1153846153846154</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>69</v>
       </c>
@@ -3387,19 +3009,13 @@
         <v>0.18099999999999999</v>
       </c>
       <c r="H63">
-        <v>0.45200000000000001</v>
+        <v>5</v>
       </c>
       <c r="I63">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="J63">
-        <v>5</v>
-      </c>
-      <c r="K63">
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -3423,19 +3039,13 @@
         <v>0.215</v>
       </c>
       <c r="H64">
-        <v>0.33800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3459,19 +3069,13 @@
         <v>0.215</v>
       </c>
       <c r="H65">
-        <v>0.51800000000000002</v>
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>0.48199999999999998</v>
-      </c>
-      <c r="J65">
-        <v>4</v>
-      </c>
-      <c r="K65">
         <v>0.1081081081081081</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3495,19 +3099,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="H66">
-        <v>0.48699999999999999</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0.123</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>48</v>
       </c>
@@ -3531,19 +3129,13 @@
         <v>0.54800000000000004</v>
       </c>
       <c r="H67">
-        <v>0.40899999999999997</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0.495</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-      <c r="K67">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -3567,19 +3159,13 @@
         <v>0.27600000000000002</v>
       </c>
       <c r="H68">
-        <v>0.60599999999999998</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="J68">
-        <v>2</v>
-      </c>
-      <c r="K68">
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3603,19 +3189,13 @@
         <v>-0.26400000000000001</v>
       </c>
       <c r="H69">
-        <v>-0.128</v>
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>-0.125</v>
-      </c>
-      <c r="J69">
-        <v>4</v>
-      </c>
-      <c r="K69">
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3639,19 +3219,13 @@
         <v>0.432</v>
       </c>
       <c r="H70">
-        <v>0.59599999999999997</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>0.379</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3675,19 +3249,13 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H71">
-        <v>0.42399999999999999</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0.51800000000000002</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3711,19 +3279,13 @@
         <v>0.108</v>
       </c>
       <c r="H72">
-        <v>0.48699999999999999</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>0.43</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="K72">
         <v>0.04</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3747,19 +3309,13 @@
         <v>0.127</v>
       </c>
       <c r="H73">
-        <v>0.29099999999999998</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -3783,19 +3339,13 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="H74">
-        <v>0.39700000000000002</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="J74">
-        <v>6</v>
-      </c>
-      <c r="K74">
         <v>0.1764705882352941</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -3819,19 +3369,13 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="H75">
-        <v>0.26</v>
+        <v>2</v>
       </c>
       <c r="I75">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="K75">
         <v>7.407407407407407E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -3855,19 +3399,13 @@
         <v>0.20100000000000001</v>
       </c>
       <c r="H76">
-        <v>0.35099999999999998</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="J76">
-        <v>3</v>
-      </c>
-      <c r="K76">
         <v>5.7692307692307702E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -3891,19 +3429,13 @@
         <v>4.1000000000000002E-2</v>
       </c>
       <c r="H77">
-        <v>0.129</v>
+        <v>7</v>
       </c>
       <c r="I77">
-        <v>0.127</v>
-      </c>
-      <c r="J77">
-        <v>7</v>
-      </c>
-      <c r="K77">
         <v>0.1521739130434783</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -3927,19 +3459,13 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="H78">
-        <v>0.50800000000000001</v>
+        <v>5</v>
       </c>
       <c r="I78">
-        <v>0.125</v>
-      </c>
-      <c r="J78">
-        <v>5</v>
-      </c>
-      <c r="K78">
         <v>0.21739130434782611</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -3963,19 +3489,13 @@
         <v>0.16600000000000001</v>
       </c>
       <c r="H79">
-        <v>0.41499999999999998</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>0.371</v>
-      </c>
-      <c r="J79">
-        <v>2</v>
-      </c>
-      <c r="K79">
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -3999,19 +3519,13 @@
         <v>0.109</v>
       </c>
       <c r="H80">
-        <v>0.45500000000000002</v>
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="J80">
-        <v>3</v>
-      </c>
-      <c r="K80">
         <v>8.5714285714285715E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4035,19 +3549,13 @@
         <v>-7.6999999999999999E-2</v>
       </c>
       <c r="H81">
-        <v>2.5999999999999999E-2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
         <v>3.5714285714285712E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4071,19 +3579,13 @@
         <v>6.4000000000000001E-2</v>
       </c>
       <c r="H82">
-        <v>0.115</v>
+        <v>5</v>
       </c>
       <c r="I82">
-        <v>0.20399999999999999</v>
-      </c>
-      <c r="J82">
-        <v>5</v>
-      </c>
-      <c r="K82">
         <v>0.125</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4107,19 +3609,13 @@
         <v>0.11</v>
       </c>
       <c r="H83">
-        <v>0.38100000000000001</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>0.312</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4143,19 +3639,13 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="H84">
-        <v>0.48699999999999999</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="J84">
-        <v>2</v>
-      </c>
-      <c r="K84">
         <v>5.7142857142857141E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4179,19 +3669,13 @@
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H85">
-        <v>0.27100000000000002</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>0.127</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85">
         <v>6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4215,19 +3699,13 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H86">
-        <v>0.46100000000000002</v>
+        <v>4</v>
       </c>
       <c r="I86">
-        <v>0.19</v>
-      </c>
-      <c r="J86">
-        <v>4</v>
-      </c>
-      <c r="K86">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4251,19 +3729,13 @@
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="H87">
-        <v>0.32500000000000001</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0.113</v>
-      </c>
-      <c r="J87">
-        <v>2</v>
-      </c>
-      <c r="K87">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4287,19 +3759,13 @@
         <v>0.18</v>
       </c>
       <c r="H88">
-        <v>0.23599999999999999</v>
+        <v>7</v>
       </c>
       <c r="I88">
-        <v>0.193</v>
-      </c>
-      <c r="J88">
-        <v>7</v>
-      </c>
-      <c r="K88">
         <v>0.1372549019607843</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4323,19 +3789,13 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="H89">
-        <v>0.28899999999999998</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4359,19 +3819,13 @@
         <v>-0.193</v>
       </c>
       <c r="H90">
-        <v>0.44</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>-0.13300000000000001</v>
-      </c>
-      <c r="J90">
-        <v>2</v>
-      </c>
-      <c r="K90">
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4395,19 +3849,13 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="H91">
-        <v>0.504</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="J91">
-        <v>5</v>
-      </c>
-      <c r="K91">
         <v>0.13157894736842099</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4431,19 +3879,13 @@
         <v>0.14599999999999999</v>
       </c>
       <c r="H92">
-        <v>0.18099999999999999</v>
+        <v>5</v>
       </c>
       <c r="I92">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="J92">
-        <v>5</v>
-      </c>
-      <c r="K92">
         <v>0.1136363636363636</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4467,19 +3909,13 @@
         <v>-3.3000000000000002E-2</v>
       </c>
       <c r="H93">
-        <v>0.47799999999999998</v>
+        <v>0</v>
       </c>
       <c r="I93">
-        <v>-0.105</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4503,19 +3939,13 @@
         <v>-1.4999999999999999E-2</v>
       </c>
       <c r="H94">
-        <v>0.27500000000000002</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0.255</v>
-      </c>
-      <c r="J94">
-        <v>2</v>
-      </c>
-      <c r="K94">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4539,19 +3969,13 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="H95">
-        <v>0.376</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4575,19 +3999,13 @@
         <v>-0.127</v>
       </c>
       <c r="H96">
-        <v>0.27700000000000002</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>0.112</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4611,19 +4029,13 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="H97">
-        <v>0.41699999999999998</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4647,19 +4059,13 @@
         <v>7.8E-2</v>
       </c>
       <c r="H98">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4683,19 +4089,13 @@
         <v>0.48</v>
       </c>
       <c r="H99">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>0.436</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
         <v>0.05</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -4719,19 +4119,13 @@
         <v>0.40200000000000002</v>
       </c>
       <c r="H100">
-        <v>0.51400000000000001</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100">
         <v>0.10526315789473679</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -4755,19 +4149,13 @@
         <v>0.109</v>
       </c>
       <c r="H101">
-        <v>0.14599999999999999</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="J101">
-        <v>2</v>
-      </c>
-      <c r="K101">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -4791,19 +4179,13 @@
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="H102">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>-0.16300000000000001</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -4827,19 +4209,13 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="H103">
-        <v>0.499</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="J103">
-        <v>1</v>
-      </c>
-      <c r="K103">
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -4863,19 +4239,13 @@
         <v>-1.9E-2</v>
       </c>
       <c r="H104">
-        <v>0.43</v>
+        <v>6</v>
       </c>
       <c r="I104">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J104">
-        <v>6</v>
-      </c>
-      <c r="K104">
         <v>0.24</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -4899,19 +4269,13 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="H105">
-        <v>0.11700000000000001</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0.245</v>
-      </c>
-      <c r="J105">
-        <v>1</v>
-      </c>
-      <c r="K105">
         <v>3.7037037037037028E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -4935,19 +4299,13 @@
         <v>0.33100000000000002</v>
       </c>
       <c r="H106">
-        <v>0.20799999999999999</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="J106">
-        <v>1</v>
-      </c>
-      <c r="K106">
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -4971,19 +4329,13 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="H107">
-        <v>0.127</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>-4.2999999999999997E-2</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5007,19 +4359,13 @@
         <v>-0.20300000000000001</v>
       </c>
       <c r="H108">
-        <v>0.28999999999999998</v>
+        <v>5</v>
       </c>
       <c r="I108">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="J108">
-        <v>5</v>
-      </c>
-      <c r="K108">
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5043,19 +4389,13 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="H109">
-        <v>-0.161</v>
+        <v>4</v>
       </c>
       <c r="I109">
-        <v>0.35</v>
-      </c>
-      <c r="J109">
-        <v>4</v>
-      </c>
-      <c r="K109">
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5079,19 +4419,13 @@
         <v>0.17599999999999999</v>
       </c>
       <c r="H110">
-        <v>0.33300000000000002</v>
+        <v>6</v>
       </c>
       <c r="I110">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="J110">
-        <v>6</v>
-      </c>
-      <c r="K110">
         <v>0.13636363636363641</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5115,19 +4449,13 @@
         <v>0.125</v>
       </c>
       <c r="H111">
-        <v>0.26900000000000002</v>
+        <v>7</v>
       </c>
       <c r="I111">
-        <v>0.104</v>
-      </c>
-      <c r="J111">
-        <v>7</v>
-      </c>
-      <c r="K111">
         <v>0.1228070175438596</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5151,19 +4479,13 @@
         <v>-0.13200000000000001</v>
       </c>
       <c r="H112">
-        <v>0.48899999999999999</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="J112">
-        <v>1</v>
-      </c>
-      <c r="K112">
         <v>4.3478260869565223E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5187,19 +4509,13 @@
         <v>0.15</v>
       </c>
       <c r="H113">
-        <v>0.28699999999999998</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5223,19 +4539,13 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="H114">
-        <v>9.1999999999999998E-2</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="J114">
-        <v>2</v>
-      </c>
-      <c r="K114">
         <v>0.2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5259,19 +4569,13 @@
         <v>0.47799999999999998</v>
       </c>
       <c r="H115">
-        <v>0.46700000000000003</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0.219</v>
-      </c>
-      <c r="J115">
-        <v>2</v>
-      </c>
-      <c r="K115">
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5295,19 +4599,13 @@
         <v>0.222</v>
       </c>
       <c r="H116">
-        <v>0.54100000000000004</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>0.255</v>
-      </c>
-      <c r="J116">
-        <v>2</v>
-      </c>
-      <c r="K116">
         <v>3.6363636363636362E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5331,20 +4629,14 @@
         <v>0.53500000000000003</v>
       </c>
       <c r="H117">
-        <v>0.30099999999999999</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="J117">
-        <v>1</v>
-      </c>
-      <c r="K117">
         <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K117">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I117">
     <sortCondition ref="B80:B117"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
